--- a/Metadatenpflege/Metadaten_Pflege.xlsx
+++ b/Metadatenpflege/Metadaten_Pflege.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Downloads\Projekte\ProjectILF\02_Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Metadatenpflege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F6B6AC-F283-4856-A129-B4D36EB6F87B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDCB738-F86F-48C1-AED3-A54332391546}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6516" yWindow="0" windowWidth="19620" windowHeight="8052" tabRatio="754" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6516" yWindow="0" windowWidth="19620" windowHeight="8052" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Connection" sheetId="1" r:id="rId1"/>
@@ -26,18 +26,18 @@
     <sheet name="SaveToDB_Lists" sheetId="5" state="veryHidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Connection!$A$1:$H$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Connection!$A$1:$H$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">FlatFileFormat!$A$1:$K$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">FlatFileFormat_SourceTable!$A$1:$C$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">SourceTable!$A$1:$J$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">SourceTableAttribute!$A$1:$O$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">SourceTable!$A$1:$J$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">SourceTableAttribute!$A$1:$O$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">TargetTable!$A$1:$L$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">TargetTableAttribute!$A$1:$M$8</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Connection!$A$1:$H$7</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Connection!$A$1:$H$14</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">FlatFileFormat!$A$1:$K$2</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">FlatFileFormat_SourceTable!$A$1:$C$2</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">SourceTable!$A$1:$J$2</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">SourceTableAttribute!$A$1:$O$9</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">SourceTable!$A$1:$J$3</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">SourceTableAttribute!$A$1:$O$10</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">TargetTable!$A$1:$L$2</definedName>
     <definedName name="ExternalData_1" localSheetId="6" hidden="1">TargetTableAttribute!$A$1:$M$8</definedName>
   </definedNames>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="318">
   <si>
     <t>ID</t>
   </si>
@@ -334,9 +334,6 @@
     <t>OLE DB</t>
   </si>
   <si>
-    <t>Provider=SQLNCLI11.1;Data Source=localhost;Initial Catalog=DWHSTG_VP;Integrated Security=SSPI;</t>
-  </si>
-  <si>
     <t>Stage</t>
   </si>
   <si>
@@ -562,15 +559,9 @@
     <t>End IDs of object [structure.FlatFileFormat_SourceTable] on sheet [FlatFileFormat_SourceTable]</t>
   </si>
   <si>
-    <t>TGK_DAT2_DEV</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
-    <t>Provider=SQLNCLI11.1;Data Source=localhost;Initial Catalog=TGK_DAT2_DEV;Integrated Security=SSPI;</t>
-  </si>
-  <si>
     <t>KundeERP_Code</t>
   </si>
   <si>
@@ -985,14 +976,68 @@
     <t>Kunde_Bezeichnung</t>
   </si>
   <si>
-    <t>DWHSTG_API</t>
+    <t>REST_API</t>
+  </si>
+  <si>
+    <t>REST API</t>
+  </si>
+  <si>
+    <t>DWHSTG_CSV</t>
+  </si>
+  <si>
+    <t>Provider=SQLNCLI11.1;Data Source=localhost;Initial Catalog=DWHSTG_API;Integrated Security=SSPI;</t>
+  </si>
+  <si>
+    <t>Provider=SQLNCLI11.1;Data Source=localhost;Initial Catalog=DWHSTG_CSV;Integrated Security=SSPI;</t>
+  </si>
+  <si>
+    <t>Flat File</t>
+  </si>
+  <si>
+    <t>CSV_1.KonzernKonto</t>
+  </si>
+  <si>
+    <t>CSV_2.BridgeKontoKonzernkonto</t>
+  </si>
+  <si>
+    <t>CSV_3.ProjektErgebnisSchema</t>
+  </si>
+  <si>
+    <t>CSV_4.Benutzer</t>
+  </si>
+  <si>
+    <t>CSV_5.Security_Projektbeteiligte</t>
+  </si>
+  <si>
+    <t>CSV_6.Security_Funktionen</t>
+  </si>
+  <si>
+    <t>DWHSTG_DELTEK</t>
+  </si>
+  <si>
+    <t>ChangedDate</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>KonzernKonto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,13 +1087,42 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1063,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1073,16 +1147,301 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="95">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1449,38 +1808,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1624,60 +1951,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2022,76 +2295,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Sheet1_Table1" displayName="Sheet1_Table1" ref="A1:H7" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Sheet1_Table1" displayName="Sheet1_Table1" ref="A1:H14" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:H7">
     <sortCondition ref="D1:D77"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Version_ID" queryTableFieldId="2" dataDxfId="67"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Connection_ID" queryTableFieldId="3" dataDxfId="66"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="ConnectionValue" queryTableFieldId="4" dataDxfId="65"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="ConnectionName" queryTableFieldId="5" dataDxfId="64"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="DatabaseName" queryTableFieldId="6" dataDxfId="63"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="ConnectionType" queryTableFieldId="7" dataDxfId="62"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="ConnectionIndex" queryTableFieldId="8" dataDxfId="61"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="ConnectorType" queryTableFieldId="9" dataDxfId="60"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Version_ID" queryTableFieldId="2" dataDxfId="94"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Connection_ID" queryTableFieldId="3" dataDxfId="93"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="ConnectionValue" queryTableFieldId="4" dataDxfId="92"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="ConnectionName" queryTableFieldId="5" dataDxfId="91"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="DatabaseName" queryTableFieldId="6" dataDxfId="90"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="ConnectionType" queryTableFieldId="7" dataDxfId="89"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="ConnectionIndex" queryTableFieldId="8" dataDxfId="88"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="ConnectorType" queryTableFieldId="9" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SourceTable_Table1" displayName="SourceTable_Table1" ref="A1:J2" tableType="queryTable" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
-  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SourceTable_Table1" displayName="SourceTable_Table1" ref="A1:J3" tableType="queryTable" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+  <autoFilter ref="A1:J3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" uniqueName="13" name="Version_ID" queryTableFieldId="2" dataDxfId="57"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" uniqueName="14" name="SourceTable_ID" queryTableFieldId="3" dataDxfId="56"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" uniqueName="15" name="Source_Connection_ID" queryTableFieldId="4" dataDxfId="55"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" uniqueName="16" name="SourceSchemaName" queryTableFieldId="5" dataDxfId="54"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" uniqueName="17" name="SourceTableName" queryTableFieldId="6" dataDxfId="53"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" uniqueName="18" name="SCDType" queryTableFieldId="7" dataDxfId="52"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" uniqueName="19" name="DataFilter" queryTableFieldId="8" dataDxfId="51"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" uniqueName="20" name="DeleteSource" queryTableFieldId="9" dataDxfId="50"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" uniqueName="21" name="IsBiml" queryTableFieldId="10" dataDxfId="49"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" uniqueName="22" name="IsIncluded" queryTableFieldId="11" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" uniqueName="13" name="Version_ID" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" uniqueName="14" name="SourceTable_ID" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" uniqueName="15" name="Source_Connection_ID" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" uniqueName="16" name="SourceSchemaName" queryTableFieldId="5" dataDxfId="84"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" uniqueName="17" name="SourceTableName" queryTableFieldId="6" dataDxfId="83"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" uniqueName="18" name="SCDType" queryTableFieldId="7" dataDxfId="82"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" uniqueName="19" name="DataFilter" queryTableFieldId="8" dataDxfId="81"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" uniqueName="20" name="DeleteSource" queryTableFieldId="9" dataDxfId="80"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" uniqueName="21" name="IsBiml" queryTableFieldId="10" dataDxfId="79"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" uniqueName="22" name="IsIncluded" queryTableFieldId="11" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="SourceTableAttribute_Table1" displayName="SourceTableAttribute_Table1" ref="A1:O9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:O9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="SourceTableAttribute_Table1" displayName="SourceTableAttribute_Table1" ref="A1:O10" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:O10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:O9">
     <sortCondition ref="B1:B9"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" uniqueName="18" name="Version_ID" queryTableFieldId="2" dataDxfId="47"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" uniqueName="19" name="SourceTable_ID" queryTableFieldId="3" dataDxfId="46"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" uniqueName="20" name="ColumnName" queryTableFieldId="4" dataDxfId="45"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" uniqueName="21" name="OrdinalPosition" queryTableFieldId="5" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" uniqueName="18" name="Version_ID" queryTableFieldId="2" dataDxfId="77"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" uniqueName="19" name="SourceTable_ID" queryTableFieldId="3" dataDxfId="76"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" uniqueName="20" name="ColumnName" queryTableFieldId="4" dataDxfId="75"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" uniqueName="21" name="OrdinalPosition" queryTableFieldId="5" dataDxfId="74"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" uniqueName="22" name="DataType" queryTableFieldId="6"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" uniqueName="23" name="CharacterMaximumLength" queryTableFieldId="7"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" uniqueName="24" name="NumericPrecision" queryTableFieldId="8" dataDxfId="43"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" uniqueName="25" name="NumericScale" queryTableFieldId="9" dataDxfId="42"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" uniqueName="24" name="NumericPrecision" queryTableFieldId="8" dataDxfId="73"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" uniqueName="25" name="NumericScale" queryTableFieldId="9" dataDxfId="72"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" uniqueName="26" name="IsBusinessKey" queryTableFieldId="10"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" uniqueName="27" name="IsDeltaIndicator" queryTableFieldId="11"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" uniqueName="28" name="SourceTableAttribute_ID" queryTableFieldId="12" dataDxfId="41"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" uniqueName="29" name="ColumnType" queryTableFieldId="13" dataDxfId="40"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" uniqueName="30" name="CodePage" queryTableFieldId="14" dataDxfId="39"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" uniqueName="31" name="Delimiter" queryTableFieldId="15" dataDxfId="38"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" uniqueName="32" name="TextQualified" queryTableFieldId="16" dataDxfId="37"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" uniqueName="28" name="SourceTableAttribute_ID" queryTableFieldId="12" dataDxfId="71"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" uniqueName="29" name="ColumnType" queryTableFieldId="13" dataDxfId="70"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" uniqueName="30" name="CodePage" queryTableFieldId="14" dataDxfId="69"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" uniqueName="31" name="Delimiter" queryTableFieldId="15" dataDxfId="68"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" uniqueName="32" name="TextQualified" queryTableFieldId="16" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_ExternalData_1" displayName="Table_ExternalData_1" ref="A1:K2" tableType="queryTable" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_ExternalData_1" displayName="Table_ExternalData_1" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="11">
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" uniqueName="14" name="Version_ID" queryTableFieldId="2"/>
@@ -2102,8 +2375,8 @@
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" uniqueName="19" name="ErrorPath" queryTableFieldId="7"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" uniqueName="20" name="CodePage" queryTableFieldId="8"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" uniqueName="21" name="RowDelimiter" queryTableFieldId="9"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" uniqueName="22" name="ColumnNamesInFirstDataRow" queryTableFieldId="10" dataDxfId="36"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" uniqueName="23" name="IsUnicode" queryTableFieldId="11" dataDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" uniqueName="22" name="ColumnNamesInFirstDataRow" queryTableFieldId="10" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" uniqueName="23" name="IsUnicode" queryTableFieldId="11" dataDxfId="1"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" uniqueName="24" name="FlatFileType" queryTableFieldId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2111,7 +2384,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="FlatFileFormat_SourceTable_Table1" displayName="FlatFileFormat_SourceTable_Table1" ref="A1:C2" tableType="queryTable" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="FlatFileFormat_SourceTable_Table1" displayName="FlatFileFormat_SourceTable_Table1" ref="A1:C2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState ref="A2:C2">
     <sortCondition ref="B1:B73"/>
@@ -2119,7 +2392,7 @@
   <tableColumns count="3">
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" uniqueName="6" name="Version_ID" queryTableFieldId="2"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" uniqueName="7" name="FlatFileFormat_ID" queryTableFieldId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" uniqueName="8" name="SourceTable_ID" queryTableFieldId="4" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" uniqueName="8" name="SourceTable_ID" queryTableFieldId="4" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2133,14 +2406,14 @@
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" uniqueName="16" name="TargetTable_ID" queryTableFieldId="3"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" uniqueName="17" name="TargetTableName" queryTableFieldId="4"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" uniqueName="18" name="TargetTableSchemaName" queryTableFieldId="5"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" uniqueName="19" name="RawProc" queryTableFieldId="6" dataDxfId="33"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" uniqueName="20" name="ValProc" queryTableFieldId="7" dataDxfId="32"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" uniqueName="21" name="RefProc" queryTableFieldId="8" dataDxfId="31"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" uniqueName="22" name="KeyProc" queryTableFieldId="9" dataDxfId="30"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" uniqueName="23" name="IntProc" queryTableFieldId="10" dataDxfId="29"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" uniqueName="24" name="IsDelta" queryTableFieldId="11" dataDxfId="28"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0500-000019000000}" uniqueName="25" name="IsBiml" queryTableFieldId="12" dataDxfId="27"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0500-00001A000000}" uniqueName="26" name="IsIncluded" queryTableFieldId="13" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" uniqueName="19" name="RawProc" queryTableFieldId="6" dataDxfId="65"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" uniqueName="20" name="ValProc" queryTableFieldId="7" dataDxfId="64"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" uniqueName="21" name="RefProc" queryTableFieldId="8" dataDxfId="63"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" uniqueName="22" name="KeyProc" queryTableFieldId="9" dataDxfId="62"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" uniqueName="23" name="IntProc" queryTableFieldId="10" dataDxfId="61"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" uniqueName="24" name="IsDelta" queryTableFieldId="11" dataDxfId="60"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0500-000019000000}" uniqueName="25" name="IsBiml" queryTableFieldId="12" dataDxfId="59"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0500-00001A000000}" uniqueName="26" name="IsIncluded" queryTableFieldId="13" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2154,15 +2427,15 @@
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" uniqueName="17" name="TargetTable_ID" queryTableFieldId="3"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" uniqueName="18" name="ColumnName" queryTableFieldId="4"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" uniqueName="19" name="OrdinalPosition" queryTableFieldId="5"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" uniqueName="20" name="DataType" queryTableFieldId="6" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" uniqueName="20" name="DataType" queryTableFieldId="6" dataDxfId="57"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0600-000015000000}" uniqueName="21" name="CharacterMaximumLength" queryTableFieldId="7"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0600-000016000000}" uniqueName="22" name="NumericPrecision" queryTableFieldId="8"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0600-000017000000}" uniqueName="23" name="NumericScale" queryTableFieldId="9"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" uniqueName="24" name="IsBusinessKey" queryTableFieldId="10" dataDxfId="24"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" uniqueName="25" name="IsPrimaryKey" queryTableFieldId="11" dataDxfId="23"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" uniqueName="26" name="IsDeltaIndicator" queryTableFieldId="12" dataDxfId="22"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" uniqueName="24" name="IsBusinessKey" queryTableFieldId="10" dataDxfId="56"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" uniqueName="25" name="IsPrimaryKey" queryTableFieldId="11" dataDxfId="55"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" uniqueName="26" name="IsDeltaIndicator" queryTableFieldId="12" dataDxfId="54"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0600-00001B000000}" uniqueName="27" name="TargetTableAttribute_ID" queryTableFieldId="13"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" uniqueName="28" name="IsNullable" queryTableFieldId="14" dataDxfId="21"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" uniqueName="28" name="IsNullable" queryTableFieldId="14" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2434,12 +2707,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2458,7 +2731,7 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
@@ -2488,16 +2761,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
         <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -2514,16 +2787,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
         <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
       </c>
       <c r="G3" t="s">
         <v>83</v>
@@ -2566,19 +2839,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" t="s">
         <v>85</v>
       </c>
-      <c r="D5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H5" t="s">
         <v>84</v>
@@ -2592,16 +2865,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
         <v>90</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
       </c>
       <c r="G6" t="s">
         <v>83</v>
@@ -2617,42 +2890,279 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" t="s">
-        <v>161</v>
+      <c r="D7" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A7 C2:H7">
-    <cfRule type="expression" dxfId="20" priority="8">
+  <conditionalFormatting sqref="A2:A14 C9 C2:H8">
+    <cfRule type="expression" dxfId="52" priority="24">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D9:H9">
+    <cfRule type="expression" dxfId="29" priority="16">
+      <formula>ISBLANK(D9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="25" priority="15">
+      <formula>ISBLANK(F10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="24" priority="14">
+      <formula>ISBLANK(F11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="23" priority="13">
+      <formula>ISBLANK(F12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="22" priority="12">
+      <formula>ISBLANK(G10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="21" priority="11">
+      <formula>ISBLANK(G11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="20" priority="10">
+      <formula>ISBLANK(G12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="19" priority="9">
+      <formula>ISBLANK(H10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="18" priority="8">
+      <formula>ISBLANK(H11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="17" priority="7">
+      <formula>ISBLANK(H12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="15" priority="6">
+      <formula>ISBLANK(F13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="14" priority="5">
+      <formula>ISBLANK(G13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>ISBLANK(H13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="11" priority="3">
+      <formula>ISBLANK(F14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>ISBLANK(G14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>ISBLANK(H14)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the int datatype." sqref="A2:B7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the int datatype." sqref="A2:B14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>-2147483648</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the nvarchar(4000) datatype." sqref="C2:H7" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the nvarchar(4000) datatype." sqref="C2:H14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>4000</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2680,7 +3190,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -2690,12 +3200,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -2710,12 +3220,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -2750,12 +3260,12 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -2765,7 +3275,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2802,12 +3312,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2829,32 +3339,32 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2865,10 +3375,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -2880,13 +3390,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2 F2">
-    <cfRule type="expression" dxfId="19" priority="11">
+  <conditionalFormatting sqref="A2:A3 F2:F3">
+    <cfRule type="expression" dxfId="51" priority="11">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="I2:I3">
     <cfRule type="iconSet" priority="325">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2895,7 +3428,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="iconSet" priority="327">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2904,7 +3437,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
+  <conditionalFormatting sqref="H2:H3">
     <cfRule type="iconSet" priority="329">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2914,23 +3447,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the nvarchar(4000) datatype." sqref="G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the nvarchar(4000) datatype." sqref="G2:G3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>4000</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the int datatype." sqref="A2:C2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the int datatype." sqref="A2:C3" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>-2147483648</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the nvarchar(128) datatype." sqref="D2" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the nvarchar(128) datatype." sqref="D2:D3" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>128</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the tinyint datatype." sqref="F2" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the tinyint datatype." sqref="F2:F3" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2942,12 +3475,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2973,47 +3506,47 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
+      <c r="B1" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" t="s">
-        <v>123</v>
-      </c>
       <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>131</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>132</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>133</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>134</v>
-      </c>
-      <c r="O1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -3024,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3045,13 +3578,13 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" t="s">
         <v>138</v>
-      </c>
-      <c r="N2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3062,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3083,13 +3616,13 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" t="s">
         <v>138</v>
-      </c>
-      <c r="N3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -3100,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3121,13 +3654,13 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" t="s">
         <v>138</v>
-      </c>
-      <c r="N4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -3138,17 +3671,23 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>314</v>
       </c>
       <c r="F5">
         <v>330</v>
       </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
       <c r="I5">
         <v>0</v>
       </c>
@@ -3159,13 +3698,13 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" t="s">
         <v>138</v>
-      </c>
-      <c r="N5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -3176,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3197,13 +3736,13 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" t="s">
         <v>138</v>
-      </c>
-      <c r="N6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -3214,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -3235,13 +3774,13 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" t="s">
         <v>138</v>
-      </c>
-      <c r="N7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -3252,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -3273,13 +3812,13 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" t="s">
         <v>138</v>
-      </c>
-      <c r="N8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -3290,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -3311,22 +3850,52 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="N9" t="s">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:E9">
-    <cfRule type="expression" dxfId="18" priority="122">
+  <conditionalFormatting sqref="A2:E10">
+    <cfRule type="expression" dxfId="50" priority="122">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
+  <conditionalFormatting sqref="I2:I10">
     <cfRule type="iconSet" priority="556">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -3334,11 +3903,11 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="557">
+    <cfRule type="expression" dxfId="49" priority="557">
       <formula>ISBLANK(I2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9">
+  <conditionalFormatting sqref="J2:J10">
     <cfRule type="iconSet" priority="558">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -3346,11 +3915,11 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="559">
+    <cfRule type="expression" dxfId="48" priority="559">
       <formula>ISBLANK(J2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O9">
+  <conditionalFormatting sqref="O2:O10">
     <cfRule type="iconSet" priority="560">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -3360,24 +3929,24 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the int datatype." sqref="B2 A2:A9 B8 B5 K2:K9" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the int datatype." sqref="B2 A2:A10 B8 B5 K2:K10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>-2147483648</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the smallint datatype." sqref="D2:D9 H2:H9 F2:F9" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the smallint datatype." sqref="D2:D10 H2:H10 F2:F10" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>-32768</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the tinyint datatype." sqref="G2:G9" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the tinyint datatype." sqref="G2:G10" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the nvarchar(128) datatype." sqref="L2:N9" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the nvarchar(128) datatype." sqref="L2:N10" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>128</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="11" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="32" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -3392,7 +3961,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3414,68 +3983,99 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
         <v>145</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" t="s">
-        <v>148</v>
-      </c>
       <c r="I1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" t="s">
         <v>150</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>151</v>
       </c>
-      <c r="K1" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="47" priority="15">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="46" priority="16">
       <formula>ISBLANK(C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="45" priority="17">
       <formula>ISBLANK(D2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="44" priority="10">
       <formula>ISBLANK(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>ISBLANK(F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="iconSet" priority="561">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -3484,7 +4084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="iconSet" priority="562">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -3493,14 +4093,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the nvarchar(128) datatype." sqref="K2 C2:G2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the nvarchar(128) datatype." sqref="C2:G2 K2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>128</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the int datatype." sqref="A2:B2" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>-2147483648</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(50) datatype." sqref="H2" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(50) datatype." sqref="H2" xr:uid="{09A21ED8-7CCB-429E-A6DE-0FFEEAD773BA}">
       <formula1>50</formula1>
     </dataValidation>
   </dataValidations>
@@ -3522,7 +4122,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3541,18 +4141,26 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" t="s">
-        <v>105</v>
+        <v>144</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C2" s="6"/>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="10" priority="116">
+    <cfRule type="expression" dxfId="42" priority="116">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3578,7 +4186,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3602,37 +4210,37 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
         <v>174</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>175</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>177</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>178</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>179</v>
       </c>
-      <c r="H1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" t="s">
-        <v>182</v>
-      </c>
       <c r="K1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -3643,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -3672,7 +4280,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2 C2:D2">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="41" priority="9">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3684,7 +4292,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="580">
+    <cfRule type="expression" dxfId="40" priority="580">
       <formula>ISBLANK(E2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3696,7 +4304,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="582">
+    <cfRule type="expression" dxfId="39" priority="582">
       <formula>ISBLANK(F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3708,7 +4316,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="584">
+    <cfRule type="expression" dxfId="38" priority="584">
       <formula>ISBLANK(G2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3720,7 +4328,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="586">
+    <cfRule type="expression" dxfId="37" priority="586">
       <formula>ISBLANK(H2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3732,7 +4340,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="588">
+    <cfRule type="expression" dxfId="36" priority="588">
       <formula>ISBLANK(I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3787,8 +4395,8 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3813,40 +4421,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" t="s">
-        <v>123</v>
-      </c>
       <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" t="s">
-        <v>130</v>
-      </c>
       <c r="L1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -3857,13 +4465,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>193</v>
+      <c r="E2" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="I2" s="5">
         <f>IF(AND(TargetTableAttribute_Table1[[#This Row],[DataType]]="nvarchar",TargetTableAttribute_Table1[[#This Row],[CharacterMaximumLength]]=30),1,0)</f>
@@ -3873,7 +4481,7 @@
         <f>IF(TargetTableAttribute_Table1[[#This Row],[DataType]]="bigint",1,0)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>0</v>
       </c>
       <c r="M2" s="5">
@@ -3889,12 +4497,12 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F3">
@@ -3908,7 +4516,7 @@
         <f>IF(TargetTableAttribute_Table1[[#This Row],[DataType]]="bigint",1,0)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>0</v>
       </c>
       <c r="M3" s="5">
@@ -3924,12 +4532,12 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F4">
@@ -3943,7 +4551,7 @@
         <f>IF(TargetTableAttribute_Table1[[#This Row],[DataType]]="bigint",1,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>0</v>
       </c>
       <c r="M4" s="5">
@@ -3959,12 +4567,12 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F5">
@@ -3978,7 +4586,7 @@
         <f>IF(TargetTableAttribute_Table1[[#This Row],[DataType]]="bigint",1,0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0</v>
       </c>
       <c r="M5" s="5">
@@ -3994,12 +4602,12 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F6">
@@ -4013,7 +4621,7 @@
         <f>IF(TargetTableAttribute_Table1[[#This Row],[DataType]]="bigint",1,0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>0</v>
       </c>
       <c r="M6" s="5">
@@ -4029,12 +4637,12 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F7">
@@ -4048,7 +4656,7 @@
         <f>IF(TargetTableAttribute_Table1[[#This Row],[DataType]]="bigint",1,0)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>0</v>
       </c>
       <c r="M7" s="5">
@@ -4064,12 +4672,12 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F8">
@@ -4083,7 +4691,7 @@
         <f>IF(TargetTableAttribute_Table1[[#This Row],[DataType]]="bigint",1,0)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>0</v>
       </c>
       <c r="M8" s="5">
@@ -4093,7 +4701,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E8">
-    <cfRule type="expression" dxfId="3" priority="27">
+    <cfRule type="expression" dxfId="35" priority="27">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4105,7 +4713,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="611">
+    <cfRule type="expression" dxfId="34" priority="611">
       <formula>ISBLANK(K2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4117,7 +4725,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="613">
+    <cfRule type="expression" dxfId="33" priority="613">
       <formula>ISBLANK(I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4129,7 +4737,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="615">
+    <cfRule type="expression" dxfId="32" priority="615">
       <formula>ISBLANK(J2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4453,7 +5061,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -4737,13 +5345,13 @@
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E35" t="s">
         <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -4779,13 +5387,13 @@
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E38" t="s">
         <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -4807,13 +5415,13 @@
         <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
         <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -4849,13 +5457,13 @@
         <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -4863,13 +5471,13 @@
         <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E44" t="s">
         <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4921,12 +5529,12 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -4946,7 +5554,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -4966,7 +5574,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
@@ -4986,7 +5594,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
@@ -5006,7 +5614,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -5026,7 +5634,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -5046,7 +5654,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
@@ -5066,12 +5674,12 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -5108,7 +5716,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -5135,12 +5743,12 @@
         <v>1</v>
       </c>
       <c r="O60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61">
         <v>3</v>
@@ -5167,12 +5775,12 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -5196,12 +5804,12 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E63">
         <v>5</v>
@@ -5225,12 +5833,12 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64">
         <v>6</v>
@@ -5245,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L64">
         <v>3</v>
@@ -5257,12 +5865,12 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E65">
         <v>7</v>
@@ -5286,12 +5894,12 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E66">
         <v>8</v>
@@ -5306,24 +5914,24 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N66" t="b">
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E67">
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -5335,52 +5943,52 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
+        <v>112</v>
+      </c>
+      <c r="N67" t="b">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
         <v>113</v>
-      </c>
-      <c r="N67" t="b">
-        <v>0</v>
-      </c>
-      <c r="O67" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E68">
         <v>10</v>
       </c>
       <c r="F68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>112</v>
+      </c>
+      <c r="N68" t="b">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
         <v>115</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>113</v>
-      </c>
-      <c r="N68" t="b">
-        <v>0</v>
-      </c>
-      <c r="O68" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -5417,7 +6025,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -5444,12 +6052,12 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -5473,12 +6081,12 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -5493,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L74">
         <v>5</v>
@@ -5505,12 +6113,12 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -5534,12 +6142,12 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -5554,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L76">
         <v>5</v>
@@ -5566,12 +6174,12 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -5586,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L77">
         <v>3</v>
@@ -5598,12 +6206,12 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -5618,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L78">
         <v>5</v>
@@ -5630,12 +6238,12 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E79">
         <v>9</v>
@@ -5650,18 +6258,18 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N79" t="b">
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E80">
         <v>10</v>
@@ -5676,18 +6284,18 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N80" t="b">
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E81">
         <v>11</v>
@@ -5714,12 +6322,12 @@
         <v>1</v>
       </c>
       <c r="O81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82">
         <v>12</v>
@@ -5743,12 +6351,12 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E83">
         <v>13</v>
@@ -5772,12 +6380,12 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E84">
         <v>14</v>
@@ -5801,12 +6409,12 @@
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E85">
         <v>15</v>
@@ -5821,23 +6429,23 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N85" t="b">
         <v>0</v>
       </c>
       <c r="O85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -5874,7 +6482,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -5901,12 +6509,12 @@
         <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E90">
         <v>3</v>
@@ -5930,12 +6538,12 @@
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E91">
         <v>4</v>
@@ -5959,12 +6567,12 @@
         <v>0</v>
       </c>
       <c r="O91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E92">
         <v>5</v>
@@ -5988,12 +6596,12 @@
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E93">
         <v>6</v>
@@ -6017,12 +6625,12 @@
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E94">
         <v>7</v>
@@ -6046,12 +6654,12 @@
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E95">
         <v>8</v>
@@ -6066,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K95">
         <v>50</v>
@@ -6075,12 +6683,12 @@
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E96">
         <v>9</v>
@@ -6095,18 +6703,18 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N96" t="b">
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E97">
         <v>10</v>
@@ -6121,18 +6729,18 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N97" t="b">
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E98">
         <v>11</v>
@@ -6156,17 +6764,17 @@
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -6203,7 +6811,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -6230,12 +6838,12 @@
         <v>0</v>
       </c>
       <c r="O102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -6262,17 +6870,17 @@
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -6309,7 +6917,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -6336,12 +6944,12 @@
         <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -6365,12 +6973,12 @@
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -6394,12 +7002,12 @@
         <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E110">
         <v>5</v>
@@ -6414,18 +7022,18 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N110" t="b">
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E111">
         <v>6</v>
@@ -6440,18 +7048,18 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N111" t="b">
         <v>0</v>
       </c>
       <c r="O111" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E112">
         <v>7</v>
@@ -6466,18 +7074,18 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N112" t="b">
         <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E113">
         <v>8</v>
@@ -6492,18 +7100,18 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N113" t="b">
         <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E114">
         <v>9</v>
@@ -6518,24 +7126,24 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N114" t="b">
         <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E115">
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G115" t="b">
         <v>0</v>
@@ -6547,24 +7155,24 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N115" t="b">
         <v>0</v>
       </c>
       <c r="O115" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E116">
         <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
@@ -6576,52 +7184,52 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
+        <v>112</v>
+      </c>
+      <c r="N116" t="b">
+        <v>0</v>
+      </c>
+      <c r="O116" t="s">
         <v>113</v>
-      </c>
-      <c r="N116" t="b">
-        <v>0</v>
-      </c>
-      <c r="O116" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E117">
         <v>12</v>
       </c>
       <c r="F117" t="s">
+        <v>114</v>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>112</v>
+      </c>
+      <c r="N117" t="b">
+        <v>0</v>
+      </c>
+      <c r="O117" t="s">
         <v>115</v>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" t="b">
-        <v>0</v>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
-        <v>113</v>
-      </c>
-      <c r="N117" t="b">
-        <v>0</v>
-      </c>
-      <c r="O117" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -6658,7 +7266,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -6685,12 +7293,12 @@
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E122">
         <v>3</v>
@@ -6714,12 +7322,12 @@
         <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E123">
         <v>4</v>
@@ -6734,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L123">
         <v>5</v>
@@ -6746,12 +7354,12 @@
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E124">
         <v>5</v>
@@ -6775,12 +7383,12 @@
         <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E125">
         <v>6</v>
@@ -6795,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L125">
         <v>5</v>
@@ -6807,12 +7415,12 @@
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E126">
         <v>7</v>
@@ -6827,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L126">
         <v>3</v>
@@ -6839,12 +7447,12 @@
         <v>0</v>
       </c>
       <c r="O126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E127">
         <v>8</v>
@@ -6859,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L127">
         <v>5</v>
@@ -6871,12 +7479,12 @@
         <v>0</v>
       </c>
       <c r="O127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E128">
         <v>9</v>
@@ -6891,18 +7499,18 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N128" t="b">
         <v>0</v>
       </c>
       <c r="O128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E129">
         <v>10</v>
@@ -6917,18 +7525,18 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N129" t="b">
         <v>0</v>
       </c>
       <c r="O129" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E130">
         <v>11</v>
@@ -6943,18 +7551,18 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N130" t="b">
         <v>0</v>
       </c>
       <c r="O130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E131">
         <v>12</v>
@@ -6981,12 +7589,12 @@
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E132">
         <v>13</v>
@@ -7001,42 +7609,42 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N132" t="b">
         <v>0</v>
       </c>
       <c r="O132" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B135" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B136" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -7044,21 +7652,21 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B138" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
@@ -7066,10 +7674,10 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B139" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C139" t="b">
         <v>0</v>
@@ -7077,10 +7685,10 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B140" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C140" t="b">
         <v>0</v>
@@ -7088,10 +7696,10 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B141" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C141" t="b">
         <v>1</v>
@@ -7099,10 +7707,10 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B142" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
@@ -7110,21 +7718,21 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B144" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C144">
         <v>11.57</v>
@@ -7132,13 +7740,13 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B145" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -7146,7 +7754,7 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C146" t="b">
         <v>0</v>
@@ -7157,10 +7765,10 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -7168,7 +7776,7 @@
         <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C148">
         <v>12.29</v>
@@ -7179,10 +7787,10 @@
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -7190,7 +7798,7 @@
         <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -7201,7 +7809,7 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -7212,10 +7820,10 @@
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -7223,10 +7831,10 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -7234,7 +7842,7 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -7245,7 +7853,7 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C155" t="b">
         <v>1</v>
@@ -7256,7 +7864,7 @@
         <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C156" t="b">
         <v>1</v>
@@ -7267,10 +7875,10 @@
         <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -7278,10 +7886,10 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -7289,7 +7897,7 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C159" t="b">
         <v>1</v>
@@ -7300,7 +7908,7 @@
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C160" t="b">
         <v>1</v>
@@ -7308,10 +7916,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B161" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C161" t="b">
         <v>0</v>
@@ -7319,21 +7927,21 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B162" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B163" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C163">
         <v>18.43</v>
@@ -7341,21 +7949,21 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B164" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B165" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -7363,10 +7971,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B166" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -7374,32 +7982,32 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B167" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B168" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B169" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -7407,10 +8015,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B170" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C170" t="b">
         <v>1</v>
@@ -7418,10 +8026,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B171" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C171" t="b">
         <v>1</v>
@@ -7429,32 +8037,32 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B172" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B173" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B174" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
@@ -7462,10 +8070,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C175" t="b">
         <v>1</v>
@@ -7473,10 +8081,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B176" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C176" t="b">
         <v>0</v>
@@ -7484,21 +8092,21 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B177" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B178" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C178">
         <v>31.57</v>
@@ -7506,21 +8114,21 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B179" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B180" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C180">
         <v>6</v>
@@ -7528,10 +8136,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B181" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C181">
         <v>8</v>
@@ -7539,21 +8147,21 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B182" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B183" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -7561,10 +8169,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B184" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C184" t="b">
         <v>1</v>
@@ -7572,10 +8180,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B185" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C185" t="b">
         <v>1</v>
@@ -7583,32 +8191,32 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B186" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B187" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B188" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C188" t="b">
         <v>1</v>
@@ -7616,10 +8224,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B189" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C189" t="b">
         <v>1</v>
@@ -7627,10 +8235,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B190" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C190" t="b">
         <v>0</v>
@@ -7638,21 +8246,21 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B191" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B192" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C192">
         <v>34.29</v>
@@ -7660,21 +8268,21 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B193" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B194" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C194">
         <v>6</v>
@@ -7682,10 +8290,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B195" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C195">
         <v>8</v>
@@ -7693,21 +8301,21 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B196" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B197" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -7715,10 +8323,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B198" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C198" t="b">
         <v>1</v>
@@ -7726,10 +8334,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B199" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C199" t="b">
         <v>1</v>
@@ -7737,32 +8345,32 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B200" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B201" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B202" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
@@ -7770,10 +8378,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B203" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C203" t="b">
         <v>1</v>
@@ -7781,10 +8389,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B204" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C204" t="b">
         <v>0</v>
@@ -7792,21 +8400,21 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B205" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B206" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C206">
         <v>42.14</v>
@@ -7814,21 +8422,21 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B207" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B208" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C208">
         <v>6</v>
@@ -7836,10 +8444,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B209" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C209">
         <v>8</v>
@@ -7847,21 +8455,21 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B210" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B211" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -7869,10 +8477,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B212" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C212" t="b">
         <v>1</v>
@@ -7880,10 +8488,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B213" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C213" t="b">
         <v>1</v>
@@ -7891,32 +8499,32 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B214" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B215" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B216" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C216" t="b">
         <v>1</v>
@@ -7924,10 +8532,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B217" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C217" t="b">
         <v>1</v>
@@ -7935,10 +8543,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B218" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C218" t="b">
         <v>0</v>
@@ -7946,21 +8554,21 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B219" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B220" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C220">
         <v>42.14</v>
@@ -7968,21 +8576,21 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B222" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C222">
         <v>6</v>
@@ -7990,10 +8598,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B223" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C223">
         <v>8</v>
@@ -8001,21 +8609,21 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B224" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B225" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -8023,10 +8631,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B226" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C226" t="b">
         <v>1</v>
@@ -8034,10 +8642,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B227" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C227" t="b">
         <v>1</v>
@@ -8045,32 +8653,32 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B228" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B230" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C230" t="b">
         <v>1</v>
@@ -8078,10 +8686,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B231" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C231" t="b">
         <v>1</v>
@@ -8089,10 +8697,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B232" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C232" t="b">
         <v>0</v>
@@ -8100,21 +8708,21 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B233" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B234" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C234">
         <v>11.43</v>
@@ -8122,21 +8730,21 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B235" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B236" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C236">
         <v>6</v>
@@ -8144,10 +8752,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B237" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C237">
         <v>8</v>
@@ -8155,21 +8763,21 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B238" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B239" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -8177,10 +8785,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B240" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C240" t="b">
         <v>1</v>
@@ -8188,10 +8796,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B241" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C241" t="b">
         <v>1</v>
@@ -8199,32 +8807,32 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B242" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B243" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B244" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C244" t="b">
         <v>1</v>
@@ -8232,10 +8840,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B245" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C245" t="b">
         <v>1</v>
@@ -8243,10 +8851,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B246" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C246" t="b">
         <v>0</v>
@@ -8254,21 +8862,21 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B247" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B248" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C248">
         <v>15</v>
@@ -8276,21 +8884,21 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B249" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B250" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C250">
         <v>6</v>
@@ -8298,10 +8906,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B251" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C251">
         <v>8</v>
@@ -8309,21 +8917,21 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B252" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B253" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -8331,10 +8939,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B254" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C254" t="b">
         <v>1</v>
@@ -8342,10 +8950,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B255" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C255" t="b">
         <v>1</v>
@@ -8353,32 +8961,32 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B256" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B257" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B258" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C258" t="b">
         <v>1</v>
@@ -8386,10 +8994,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B259" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C259" t="b">
         <v>1</v>
@@ -8397,10 +9005,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B260" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C260" t="b">
         <v>0</v>
@@ -8408,21 +9016,21 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B261" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B262" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C262">
         <v>29.57</v>
@@ -8430,21 +9038,21 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B263" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B264" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C264">
         <v>-4108</v>
@@ -8452,10 +9060,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B265" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C265">
         <v>10</v>
@@ -8463,10 +9071,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B266" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C266" t="b">
         <v>0</v>
@@ -8474,21 +9082,21 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B267" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B268" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C268">
         <v>11.43</v>
@@ -8496,21 +9104,21 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B269" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B270" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C270">
         <v>-4108</v>
@@ -8518,10 +9126,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B271" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C271">
         <v>10</v>
@@ -8529,10 +9137,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B272" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C272" t="b">
         <v>0</v>
@@ -8540,21 +9148,21 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B273" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B274" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C274">
         <v>13.43</v>
@@ -8562,21 +9170,21 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B275" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B276" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C276">
         <v>6</v>
@@ -8584,10 +9192,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B277" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C277">
         <v>8</v>
@@ -8595,21 +9203,21 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B278" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B279" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -8617,10 +9225,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B280" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C280" t="b">
         <v>1</v>
@@ -8628,10 +9236,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B281" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C281" t="b">
         <v>1</v>
@@ -8639,32 +9247,32 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B282" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B283" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B284" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C284" t="b">
         <v>1</v>
@@ -8672,10 +9280,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B285" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C285" t="b">
         <v>1</v>
@@ -8686,10 +9294,10 @@
         <v>2</v>
       </c>
       <c r="B286" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -8697,7 +9305,7 @@
         <v>2</v>
       </c>
       <c r="B287" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C287">
         <v>2</v>
@@ -8708,7 +9316,7 @@
         <v>2</v>
       </c>
       <c r="B288" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C288">
         <v>12</v>
@@ -8719,10 +9327,10 @@
         <v>2</v>
       </c>
       <c r="B289" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -8730,7 +9338,7 @@
         <v>2</v>
       </c>
       <c r="B290" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C290">
         <v>65535</v>
@@ -8738,21 +9346,21 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B291" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B292" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C292">
         <v>2</v>
@@ -8760,10 +9368,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B293" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C293">
         <v>13</v>
@@ -8771,21 +9379,21 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B294" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B295" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C295">
         <v>65535</v>
@@ -8793,21 +9401,21 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B296" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B297" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C297">
         <v>2</v>
@@ -8815,10 +9423,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B298" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C298">
         <v>14</v>
@@ -8826,21 +9434,21 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B299" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B300" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C300">
         <v>65535</v>
@@ -8848,21 +9456,21 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B301" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B302" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C302">
         <v>6</v>
@@ -8870,10 +9478,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B303" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C303">
         <v>320</v>
@@ -8881,10 +9489,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B304" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C304" t="b">
         <v>1</v>
@@ -8892,10 +9500,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B305" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C305">
         <v>8</v>
@@ -8903,10 +9511,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B306" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C306">
         <v>3</v>
@@ -8914,10 +9522,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B307" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C307">
         <v>7</v>
@@ -8925,10 +9533,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B308" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -8936,10 +9544,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B309" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C309">
         <v>0.5</v>
@@ -8947,10 +9555,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B310" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C310">
         <v>7</v>
@@ -8958,10 +9566,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B311" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -8969,10 +9577,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B312" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -8980,10 +9588,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B313" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C313">
         <v>7</v>
@@ -8991,21 +9599,21 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B314" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B315" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C315">
         <v>6</v>
@@ -9013,10 +9621,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B316" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C316">
         <v>321</v>
@@ -9024,10 +9632,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B317" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C317" t="b">
         <v>1</v>
@@ -9035,10 +9643,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B318" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C318">
         <v>8</v>
@@ -9046,10 +9654,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B319" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C319">
         <v>3</v>
@@ -9057,10 +9665,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B320" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C320">
         <v>7</v>
@@ -9068,10 +9676,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B321" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -9079,10 +9687,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B322" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C322">
         <v>0.5</v>
@@ -9090,10 +9698,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B323" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C323">
         <v>7</v>
@@ -9101,10 +9709,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B324" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -9112,10 +9720,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B325" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -9123,10 +9731,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B326" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C326">
         <v>7</v>
@@ -9134,21 +9742,21 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B327" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B328" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -9156,10 +9764,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B329" t="s">
         <v>281</v>
-      </c>
-      <c r="B329" t="s">
-        <v>284</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -9167,10 +9775,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B330" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -9178,10 +9786,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B331" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C331" t="b">
         <v>0</v>
@@ -9189,10 +9797,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B332" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C332" t="b">
         <v>0</v>
@@ -9200,10 +9808,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B333" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C333" t="b">
         <v>0</v>
@@ -9211,10 +9819,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B334" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C334">
         <v>-1</v>
@@ -9222,10 +9830,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B335" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C335">
         <v>-1</v>
@@ -9233,10 +9841,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B336" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -9244,10 +9852,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B337" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C337">
         <v>1</v>
@@ -9255,10 +9863,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B338" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -9266,7 +9874,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -9296,12 +9904,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -9461,20 +10069,20 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9991,20 +10599,20 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -13105,26 +13713,26 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B482" t="s">
         <v>2</v>
       </c>
       <c r="C482" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D482" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -13311,20 +13919,20 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B498" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -13345,20 +13953,20 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B503" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -13411,20 +14019,20 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B512" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -13533,7 +14141,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Metadatenpflege/Metadaten_Pflege.xlsx
+++ b/Metadatenpflege/Metadaten_Pflege.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmarkoja\Documents\ILF\Metadatenpflege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939920DD-CA95-4609-B632-B3C0C0B22063}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48BEAF7-2AF1-46F9-A36D-DA155954D357}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="0" windowWidth="19620" windowHeight="8055" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2056,7 +2056,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2081,12 +2081,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2100,7 +2094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2125,453 +2119,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="86">
     <dxf>
       <font>
         <b val="0"/>
@@ -2638,6 +2190,34 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2768,6 +2348,48 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2787,6 +2409,13 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2821,6 +2450,167 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2949,6 +2739,13 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3124,6 +2921,125 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3279,33 +3195,33 @@
     <sortCondition ref="D1:D77"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Version_ID" queryTableFieldId="2" dataDxfId="96"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Connection_ID" queryTableFieldId="3" dataDxfId="95"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="ConnectionValue" queryTableFieldId="4" dataDxfId="94"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="ConnectionName" queryTableFieldId="5" dataDxfId="93"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="DatabaseName" queryTableFieldId="6" dataDxfId="92"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="ConnectionType" queryTableFieldId="7" dataDxfId="91"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="ConnectionIndex" queryTableFieldId="8" dataDxfId="90"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="ConnectorType" queryTableFieldId="9" dataDxfId="89"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Version_ID" queryTableFieldId="2" dataDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Connection_ID" queryTableFieldId="3" dataDxfId="67"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="ConnectionValue" queryTableFieldId="4" dataDxfId="66"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="ConnectionName" queryTableFieldId="5" dataDxfId="65"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="DatabaseName" queryTableFieldId="6" dataDxfId="64"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="ConnectionType" queryTableFieldId="7" dataDxfId="63"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="ConnectionIndex" queryTableFieldId="8" dataDxfId="62"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="ConnectorType" queryTableFieldId="9" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SourceTable_Table1" displayName="SourceTable_Table1" ref="A1:J25" tableType="queryTable" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SourceTable_Table1" displayName="SourceTable_Table1" ref="A1:J25" tableType="queryTable" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:J25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" uniqueName="13" name="Version_ID" queryTableFieldId="2" dataDxfId="86"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" uniqueName="14" name="SourceTable_ID" queryTableFieldId="3" dataDxfId="85"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" uniqueName="15" name="Source_Connection_ID" queryTableFieldId="4" dataDxfId="84"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" uniqueName="16" name="SourceSchemaName" queryTableFieldId="5" dataDxfId="83"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" uniqueName="17" name="SourceTableName" queryTableFieldId="6" dataDxfId="82"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" uniqueName="18" name="SCDType" queryTableFieldId="7" dataDxfId="81"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" uniqueName="19" name="DataFilter" queryTableFieldId="8" dataDxfId="80"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" uniqueName="20" name="DeleteSource" queryTableFieldId="9" dataDxfId="79"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" uniqueName="21" name="IsBiml" queryTableFieldId="10" dataDxfId="78"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" uniqueName="22" name="IsIncluded" queryTableFieldId="11" dataDxfId="77"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" uniqueName="13" name="Version_ID" queryTableFieldId="2" dataDxfId="57"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" uniqueName="14" name="SourceTable_ID" queryTableFieldId="3" dataDxfId="56"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" uniqueName="15" name="Source_Connection_ID" queryTableFieldId="4" dataDxfId="55"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" uniqueName="16" name="SourceSchemaName" queryTableFieldId="5" dataDxfId="54"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" uniqueName="17" name="SourceTableName" queryTableFieldId="6" dataDxfId="53"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" uniqueName="18" name="SCDType" queryTableFieldId="7" dataDxfId="52"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" uniqueName="19" name="DataFilter" queryTableFieldId="8" dataDxfId="51"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" uniqueName="20" name="DeleteSource" queryTableFieldId="9" dataDxfId="50"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" uniqueName="21" name="IsBiml" queryTableFieldId="10" dataDxfId="49"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" uniqueName="22" name="IsIncluded" queryTableFieldId="11" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3314,25 +3230,22 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="SourceTableAttribute_Table1" displayName="SourceTableAttribute_Table1" ref="A1:O403" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:O403" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState ref="A2:O1">
-    <sortCondition ref="B1"/>
-  </sortState>
   <tableColumns count="15">
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" uniqueName="18" name="Version_ID" queryTableFieldId="2" dataDxfId="60"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" uniqueName="19" name="SourceTable_ID" queryTableFieldId="3" dataDxfId="59"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" uniqueName="20" name="ColumnName" queryTableFieldId="4" dataDxfId="58"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" uniqueName="21" name="OrdinalPosition" queryTableFieldId="5" dataDxfId="57"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" uniqueName="18" name="Version_ID" queryTableFieldId="2" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" uniqueName="19" name="SourceTable_ID" queryTableFieldId="3" dataDxfId="41"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" uniqueName="20" name="ColumnName" queryTableFieldId="4" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" uniqueName="21" name="OrdinalPosition" queryTableFieldId="5" dataDxfId="39"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" uniqueName="22" name="DataType" queryTableFieldId="6"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" uniqueName="23" name="CharacterMaximumLength" queryTableFieldId="7"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" uniqueName="24" name="NumericPrecision" queryTableFieldId="8" dataDxfId="56"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" uniqueName="25" name="NumericScale" queryTableFieldId="9" dataDxfId="55"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" uniqueName="24" name="NumericPrecision" queryTableFieldId="8" dataDxfId="38"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" uniqueName="25" name="NumericScale" queryTableFieldId="9" dataDxfId="37"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" uniqueName="26" name="IsBusinessKey" queryTableFieldId="10"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" uniqueName="27" name="IsDeltaIndicator" queryTableFieldId="11"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" uniqueName="28" name="SourceTableAttribute_ID" queryTableFieldId="12" dataDxfId="54"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" uniqueName="29" name="ColumnType" queryTableFieldId="13" dataDxfId="53"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" uniqueName="30" name="CodePage" queryTableFieldId="14" dataDxfId="52"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" uniqueName="31" name="Delimiter" queryTableFieldId="15" dataDxfId="51"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" uniqueName="32" name="TextQualified" queryTableFieldId="16" dataDxfId="50"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" uniqueName="28" name="SourceTableAttribute_ID" queryTableFieldId="12" dataDxfId="36"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" uniqueName="29" name="ColumnType" queryTableFieldId="13" dataDxfId="35"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" uniqueName="30" name="CodePage" queryTableFieldId="14" dataDxfId="34"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" uniqueName="31" name="Delimiter" queryTableFieldId="15" dataDxfId="33"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" uniqueName="32" name="TextQualified" queryTableFieldId="16" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3350,8 +3263,8 @@
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" uniqueName="19" name="ErrorPath" queryTableFieldId="7"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" uniqueName="20" name="CodePage" queryTableFieldId="8"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" uniqueName="21" name="RowDelimiter" queryTableFieldId="9"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" uniqueName="22" name="ColumnNamesInFirstDataRow" queryTableFieldId="10" dataDxfId="76"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" uniqueName="23" name="IsUnicode" queryTableFieldId="11" dataDxfId="75"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" uniqueName="22" name="ColumnNamesInFirstDataRow" queryTableFieldId="10" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" uniqueName="23" name="IsUnicode" queryTableFieldId="11" dataDxfId="25"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" uniqueName="24" name="FlatFileType" queryTableFieldId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3367,7 +3280,7 @@
   <tableColumns count="3">
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" uniqueName="6" name="Version_ID" queryTableFieldId="2"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" uniqueName="7" name="FlatFileFormat_ID" queryTableFieldId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" uniqueName="8" name="SourceTable_ID" queryTableFieldId="4" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" uniqueName="8" name="SourceTable_ID" queryTableFieldId="4" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3381,14 +3294,14 @@
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" uniqueName="16" name="TargetTable_ID" queryTableFieldId="3"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" uniqueName="17" name="TargetTableName" queryTableFieldId="4"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" uniqueName="18" name="TargetTableSchemaName" queryTableFieldId="5"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" uniqueName="19" name="RawProc" queryTableFieldId="6" dataDxfId="73"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" uniqueName="20" name="ValProc" queryTableFieldId="7" dataDxfId="72"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" uniqueName="21" name="RefProc" queryTableFieldId="8" dataDxfId="71"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" uniqueName="22" name="KeyProc" queryTableFieldId="9" dataDxfId="70"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" uniqueName="23" name="IntProc" queryTableFieldId="10" dataDxfId="69"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" uniqueName="24" name="IsDelta" queryTableFieldId="11" dataDxfId="68"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0500-000019000000}" uniqueName="25" name="IsBiml" queryTableFieldId="12" dataDxfId="67"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0500-00001A000000}" uniqueName="26" name="IsIncluded" queryTableFieldId="13" dataDxfId="66"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" uniqueName="19" name="RawProc" queryTableFieldId="6" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" uniqueName="20" name="ValProc" queryTableFieldId="7" dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" uniqueName="21" name="RefProc" queryTableFieldId="8" dataDxfId="14"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" uniqueName="22" name="KeyProc" queryTableFieldId="9" dataDxfId="13"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" uniqueName="23" name="IntProc" queryTableFieldId="10" dataDxfId="12"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" uniqueName="24" name="IsDelta" queryTableFieldId="11" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0500-000019000000}" uniqueName="25" name="IsBiml" queryTableFieldId="12" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0500-00001A000000}" uniqueName="26" name="IsIncluded" queryTableFieldId="13" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3402,15 +3315,15 @@
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" uniqueName="17" name="TargetTable_ID" queryTableFieldId="3"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" uniqueName="18" name="ColumnName" queryTableFieldId="4"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" uniqueName="19" name="OrdinalPosition" queryTableFieldId="5"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" uniqueName="20" name="DataType" queryTableFieldId="6" dataDxfId="65"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" uniqueName="20" name="DataType" queryTableFieldId="6" dataDxfId="4"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0600-000015000000}" uniqueName="21" name="CharacterMaximumLength" queryTableFieldId="7"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0600-000016000000}" uniqueName="22" name="NumericPrecision" queryTableFieldId="8"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0600-000017000000}" uniqueName="23" name="NumericScale" queryTableFieldId="9"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" uniqueName="24" name="IsBusinessKey" queryTableFieldId="10" dataDxfId="64"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" uniqueName="25" name="IsPrimaryKey" queryTableFieldId="11" dataDxfId="63"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" uniqueName="26" name="IsDeltaIndicator" queryTableFieldId="12" dataDxfId="62"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" uniqueName="24" name="IsBusinessKey" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" uniqueName="25" name="IsPrimaryKey" queryTableFieldId="11" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" uniqueName="26" name="IsDeltaIndicator" queryTableFieldId="12" dataDxfId="1"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0600-00001B000000}" uniqueName="27" name="TargetTableAttribute_ID" queryTableFieldId="13"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" uniqueName="28" name="IsNullable" queryTableFieldId="14" dataDxfId="61"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" uniqueName="28" name="IsNullable" queryTableFieldId="14" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3687,7 +3600,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4043,87 +3956,87 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A14 C9 C2:H8">
-    <cfRule type="expression" dxfId="40" priority="24">
+    <cfRule type="expression" dxfId="85" priority="24">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:H9">
-    <cfRule type="expression" dxfId="39" priority="16">
+    <cfRule type="expression" dxfId="84" priority="16">
       <formula>ISBLANK(D9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="38" priority="15">
+    <cfRule type="expression" dxfId="83" priority="15">
       <formula>ISBLANK(F10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="37" priority="14">
+    <cfRule type="expression" dxfId="82" priority="14">
       <formula>ISBLANK(F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="36" priority="13">
+    <cfRule type="expression" dxfId="81" priority="13">
       <formula>ISBLANK(F12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="35" priority="12">
+    <cfRule type="expression" dxfId="80" priority="12">
       <formula>ISBLANK(G10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="79" priority="11">
       <formula>ISBLANK(G11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="33" priority="10">
+    <cfRule type="expression" dxfId="78" priority="10">
       <formula>ISBLANK(G12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="32" priority="9">
+    <cfRule type="expression" dxfId="77" priority="9">
       <formula>ISBLANK(H10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="76" priority="8">
       <formula>ISBLANK(H11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="30" priority="7">
+    <cfRule type="expression" dxfId="75" priority="7">
       <formula>ISBLANK(H12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="74" priority="6">
       <formula>ISBLANK(F13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="73" priority="5">
       <formula>ISBLANK(G13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="72" priority="4">
       <formula>ISBLANK(H13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="71" priority="3">
       <formula>ISBLANK(F14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>ISBLANK(G14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="69" priority="1">
       <formula>ISBLANK(H14)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4292,7 +4205,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4441,10 +4354,15 @@
       <c r="B6" s="17">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
       <c r="E6" s="18" t="s">
         <v>314</v>
       </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
       <c r="I6" s="3">
         <v>1</v>
       </c>
@@ -4891,7 +4809,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F25 A2:A25">
-    <cfRule type="expression" dxfId="23" priority="11">
+    <cfRule type="expression" dxfId="60" priority="11">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4954,9 +4872,9 @@
   <dimension ref="A1:O403"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B351" sqref="A351:XFD380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14687,7 +14605,7 @@
         <v>137</v>
       </c>
       <c r="N273" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O273" s="3"/>
     </row>
@@ -14736,8 +14654,8 @@
       <c r="D275" s="3">
         <v>1</v>
       </c>
-      <c r="E275" s="20" t="s">
-        <v>305</v>
+      <c r="E275" t="s">
+        <v>348</v>
       </c>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
@@ -14943,8 +14861,8 @@
       <c r="D281" s="3">
         <v>7</v>
       </c>
-      <c r="E281" s="20" t="s">
-        <v>305</v>
+      <c r="E281" t="s">
+        <v>348</v>
       </c>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
@@ -19264,7 +19182,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A19:B80 D80 C19:E79 A2:E18">
-    <cfRule type="expression" dxfId="22" priority="126">
+    <cfRule type="expression" dxfId="47" priority="126">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19276,7 +19194,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>ISBLANK(I344)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19288,7 +19206,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>ISBLANK(J344)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19300,7 +19218,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="624">
+    <cfRule type="expression" dxfId="44" priority="624">
       <formula>ISBLANK(I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19312,7 +19230,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="626">
+    <cfRule type="expression" dxfId="43" priority="626">
       <formula>ISBLANK(J2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19622,27 +19540,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="30" priority="16">
       <formula>ISBLANK(C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>ISBLANK(D2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>ISBLANK(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>ISBLANK(F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19787,7 +19705,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="expression" dxfId="14" priority="116">
+    <cfRule type="expression" dxfId="24" priority="116">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19907,7 +19825,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2 C2:D2">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19919,7 +19837,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="580">
+    <cfRule type="expression" dxfId="21" priority="580">
       <formula>ISBLANK(E2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19931,7 +19849,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="582">
+    <cfRule type="expression" dxfId="20" priority="582">
       <formula>ISBLANK(F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19943,7 +19861,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="584">
+    <cfRule type="expression" dxfId="19" priority="584">
       <formula>ISBLANK(G2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19955,7 +19873,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="586">
+    <cfRule type="expression" dxfId="18" priority="586">
       <formula>ISBLANK(H2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19967,7 +19885,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="588">
+    <cfRule type="expression" dxfId="17" priority="588">
       <formula>ISBLANK(I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20328,7 +20246,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E8">
-    <cfRule type="expression" dxfId="7" priority="27">
+    <cfRule type="expression" dxfId="8" priority="27">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20340,7 +20258,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="611">
+    <cfRule type="expression" dxfId="7" priority="611">
       <formula>ISBLANK(K2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20352,7 +20270,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="613">
+    <cfRule type="expression" dxfId="6" priority="613">
       <formula>ISBLANK(I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20364,7 +20282,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="615">
+    <cfRule type="expression" dxfId="5" priority="615">
       <formula>ISBLANK(J2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Metadatenpflege/Metadaten_Pflege.xlsx
+++ b/Metadatenpflege/Metadaten_Pflege.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmarkoja\Documents\ILF\Metadatenpflege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48BEAF7-2AF1-46F9-A36D-DA155954D357}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B28350-7341-4B74-8D07-3BFB259531E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="0" windowWidth="19620" windowHeight="8055" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,19 +30,18 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">FlatFileFormat!$A$1:$K$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">FlatFileFormat_SourceTable!$A$1:$C$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">SourceTable!$A$1:$J$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">SourceTableAttribute!$A$1:$O$403</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">SourceTableAttribute!$A$1:$O$397</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">TargetTable!$A$1:$L$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">TargetTableAttribute!$A$1:$M$8</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Connection!$A$1:$H$14</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">FlatFileFormat!$A$1:$K$7</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">FlatFileFormat_SourceTable!$A$1:$C$7</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">SourceTable!$A$1:$J$25</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">SourceTableAttribute!$A$1:$O$403</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">SourceTableAttribute!$A$1:$O$397</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">TargetTable!$A$1:$L$2</definedName>
     <definedName name="ExternalData_1" localSheetId="6" hidden="1">TargetTableAttribute!$A$1:$M$8</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="635">
   <si>
     <t>ID</t>
   </si>
@@ -2123,7 +2122,315 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="91">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2190,34 +2497,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2348,48 +2627,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2409,13 +2646,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2450,41 +2680,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2574,41 +2769,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2739,13 +2899,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2921,125 +3074,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3195,57 +3229,57 @@
     <sortCondition ref="D1:D77"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Version_ID" queryTableFieldId="2" dataDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Connection_ID" queryTableFieldId="3" dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="ConnectionValue" queryTableFieldId="4" dataDxfId="66"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="ConnectionName" queryTableFieldId="5" dataDxfId="65"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="DatabaseName" queryTableFieldId="6" dataDxfId="64"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="ConnectionType" queryTableFieldId="7" dataDxfId="63"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="ConnectionIndex" queryTableFieldId="8" dataDxfId="62"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="ConnectorType" queryTableFieldId="9" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Version_ID" queryTableFieldId="2" dataDxfId="90"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Connection_ID" queryTableFieldId="3" dataDxfId="89"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="ConnectionValue" queryTableFieldId="4" dataDxfId="88"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="ConnectionName" queryTableFieldId="5" dataDxfId="87"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="DatabaseName" queryTableFieldId="6" dataDxfId="86"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="ConnectionType" queryTableFieldId="7" dataDxfId="85"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="ConnectionIndex" queryTableFieldId="8" dataDxfId="84"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="ConnectorType" queryTableFieldId="9" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SourceTable_Table1" displayName="SourceTable_Table1" ref="A1:J25" tableType="queryTable" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SourceTable_Table1" displayName="SourceTable_Table1" ref="A1:J25" tableType="queryTable" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:J25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" uniqueName="13" name="Version_ID" queryTableFieldId="2" dataDxfId="57"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" uniqueName="14" name="SourceTable_ID" queryTableFieldId="3" dataDxfId="56"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" uniqueName="15" name="Source_Connection_ID" queryTableFieldId="4" dataDxfId="55"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" uniqueName="16" name="SourceSchemaName" queryTableFieldId="5" dataDxfId="54"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" uniqueName="17" name="SourceTableName" queryTableFieldId="6" dataDxfId="53"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" uniqueName="18" name="SCDType" queryTableFieldId="7" dataDxfId="52"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" uniqueName="19" name="DataFilter" queryTableFieldId="8" dataDxfId="51"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" uniqueName="20" name="DeleteSource" queryTableFieldId="9" dataDxfId="50"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" uniqueName="21" name="IsBiml" queryTableFieldId="10" dataDxfId="49"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" uniqueName="22" name="IsIncluded" queryTableFieldId="11" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" uniqueName="13" name="Version_ID" queryTableFieldId="2" dataDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" uniqueName="14" name="SourceTable_ID" queryTableFieldId="3" dataDxfId="79"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" uniqueName="15" name="Source_Connection_ID" queryTableFieldId="4" dataDxfId="78"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" uniqueName="16" name="SourceSchemaName" queryTableFieldId="5" dataDxfId="77"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" uniqueName="17" name="SourceTableName" queryTableFieldId="6" dataDxfId="76"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" uniqueName="18" name="SCDType" queryTableFieldId="7" dataDxfId="75"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" uniqueName="19" name="DataFilter" queryTableFieldId="8" dataDxfId="74"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" uniqueName="20" name="DeleteSource" queryTableFieldId="9" dataDxfId="73"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" uniqueName="21" name="IsBiml" queryTableFieldId="10" dataDxfId="72"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" uniqueName="22" name="IsIncluded" queryTableFieldId="11" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="SourceTableAttribute_Table1" displayName="SourceTableAttribute_Table1" ref="A1:O403" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:O403" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="SourceTableAttribute_Table1" displayName="SourceTableAttribute_Table1" ref="A1:O397" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:O397" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" uniqueName="18" name="Version_ID" queryTableFieldId="2" dataDxfId="42"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" uniqueName="19" name="SourceTable_ID" queryTableFieldId="3" dataDxfId="41"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" uniqueName="20" name="ColumnName" queryTableFieldId="4" dataDxfId="40"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" uniqueName="21" name="OrdinalPosition" queryTableFieldId="5" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" uniqueName="18" name="Version_ID" queryTableFieldId="2" dataDxfId="70"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" uniqueName="19" name="SourceTable_ID" queryTableFieldId="3" dataDxfId="69"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" uniqueName="20" name="ColumnName" queryTableFieldId="4" dataDxfId="68"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" uniqueName="21" name="OrdinalPosition" queryTableFieldId="5" dataDxfId="67"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" uniqueName="22" name="DataType" queryTableFieldId="6"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" uniqueName="23" name="CharacterMaximumLength" queryTableFieldId="7"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" uniqueName="24" name="NumericPrecision" queryTableFieldId="8" dataDxfId="38"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" uniqueName="25" name="NumericScale" queryTableFieldId="9" dataDxfId="37"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" uniqueName="24" name="NumericPrecision" queryTableFieldId="8" dataDxfId="66"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" uniqueName="25" name="NumericScale" queryTableFieldId="9" dataDxfId="65"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" uniqueName="26" name="IsBusinessKey" queryTableFieldId="10"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" uniqueName="27" name="IsDeltaIndicator" queryTableFieldId="11"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" uniqueName="28" name="SourceTableAttribute_ID" queryTableFieldId="12" dataDxfId="36"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" uniqueName="29" name="ColumnType" queryTableFieldId="13" dataDxfId="35"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" uniqueName="30" name="CodePage" queryTableFieldId="14" dataDxfId="34"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" uniqueName="31" name="Delimiter" queryTableFieldId="15" dataDxfId="33"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" uniqueName="32" name="TextQualified" queryTableFieldId="16" dataDxfId="32"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" uniqueName="28" name="SourceTableAttribute_ID" queryTableFieldId="12" dataDxfId="64"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" uniqueName="29" name="ColumnType" queryTableFieldId="13" dataDxfId="63"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" uniqueName="30" name="CodePage" queryTableFieldId="14" dataDxfId="62"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" uniqueName="31" name="Delimiter" queryTableFieldId="15" dataDxfId="61"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" uniqueName="32" name="TextQualified" queryTableFieldId="16" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3263,8 +3297,8 @@
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" uniqueName="19" name="ErrorPath" queryTableFieldId="7"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" uniqueName="20" name="CodePage" queryTableFieldId="8"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" uniqueName="21" name="RowDelimiter" queryTableFieldId="9"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" uniqueName="22" name="ColumnNamesInFirstDataRow" queryTableFieldId="10" dataDxfId="26"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" uniqueName="23" name="IsUnicode" queryTableFieldId="11" dataDxfId="25"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" uniqueName="22" name="ColumnNamesInFirstDataRow" queryTableFieldId="10" dataDxfId="59"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" uniqueName="23" name="IsUnicode" queryTableFieldId="11" dataDxfId="58"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" uniqueName="24" name="FlatFileType" queryTableFieldId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3280,7 +3314,7 @@
   <tableColumns count="3">
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" uniqueName="6" name="Version_ID" queryTableFieldId="2"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" uniqueName="7" name="FlatFileFormat_ID" queryTableFieldId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" uniqueName="8" name="SourceTable_ID" queryTableFieldId="4" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" uniqueName="8" name="SourceTable_ID" queryTableFieldId="4" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3294,14 +3328,14 @@
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" uniqueName="16" name="TargetTable_ID" queryTableFieldId="3"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" uniqueName="17" name="TargetTableName" queryTableFieldId="4"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" uniqueName="18" name="TargetTableSchemaName" queryTableFieldId="5"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" uniqueName="19" name="RawProc" queryTableFieldId="6" dataDxfId="16"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" uniqueName="20" name="ValProc" queryTableFieldId="7" dataDxfId="15"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" uniqueName="21" name="RefProc" queryTableFieldId="8" dataDxfId="14"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" uniqueName="22" name="KeyProc" queryTableFieldId="9" dataDxfId="13"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" uniqueName="23" name="IntProc" queryTableFieldId="10" dataDxfId="12"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" uniqueName="24" name="IsDelta" queryTableFieldId="11" dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0500-000019000000}" uniqueName="25" name="IsBiml" queryTableFieldId="12" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0500-00001A000000}" uniqueName="26" name="IsIncluded" queryTableFieldId="13" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" uniqueName="19" name="RawProc" queryTableFieldId="6" dataDxfId="56"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" uniqueName="20" name="ValProc" queryTableFieldId="7" dataDxfId="55"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" uniqueName="21" name="RefProc" queryTableFieldId="8" dataDxfId="54"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" uniqueName="22" name="KeyProc" queryTableFieldId="9" dataDxfId="53"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" uniqueName="23" name="IntProc" queryTableFieldId="10" dataDxfId="52"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" uniqueName="24" name="IsDelta" queryTableFieldId="11" dataDxfId="51"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0500-000019000000}" uniqueName="25" name="IsBiml" queryTableFieldId="12" dataDxfId="50"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0500-00001A000000}" uniqueName="26" name="IsIncluded" queryTableFieldId="13" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3315,15 +3349,15 @@
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" uniqueName="17" name="TargetTable_ID" queryTableFieldId="3"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" uniqueName="18" name="ColumnName" queryTableFieldId="4"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" uniqueName="19" name="OrdinalPosition" queryTableFieldId="5"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" uniqueName="20" name="DataType" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" uniqueName="20" name="DataType" queryTableFieldId="6" dataDxfId="48"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0600-000015000000}" uniqueName="21" name="CharacterMaximumLength" queryTableFieldId="7"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0600-000016000000}" uniqueName="22" name="NumericPrecision" queryTableFieldId="8"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0600-000017000000}" uniqueName="23" name="NumericScale" queryTableFieldId="9"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" uniqueName="24" name="IsBusinessKey" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" uniqueName="25" name="IsPrimaryKey" queryTableFieldId="11" dataDxfId="2"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" uniqueName="26" name="IsDeltaIndicator" queryTableFieldId="12" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" uniqueName="24" name="IsBusinessKey" queryTableFieldId="10" dataDxfId="47"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" uniqueName="25" name="IsPrimaryKey" queryTableFieldId="11" dataDxfId="46"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" uniqueName="26" name="IsDeltaIndicator" queryTableFieldId="12" dataDxfId="45"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0600-00001B000000}" uniqueName="27" name="TargetTableAttribute_ID" queryTableFieldId="13"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" uniqueName="28" name="IsNullable" queryTableFieldId="14" dataDxfId="0"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" uniqueName="28" name="IsNullable" queryTableFieldId="14" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3956,87 +3990,87 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A14 C9 C2:H8">
-    <cfRule type="expression" dxfId="85" priority="24">
+    <cfRule type="expression" dxfId="43" priority="24">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:H9">
-    <cfRule type="expression" dxfId="84" priority="16">
+    <cfRule type="expression" dxfId="42" priority="16">
       <formula>ISBLANK(D9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="83" priority="15">
+    <cfRule type="expression" dxfId="41" priority="15">
       <formula>ISBLANK(F10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="82" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>ISBLANK(F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="81" priority="13">
+    <cfRule type="expression" dxfId="39" priority="13">
       <formula>ISBLANK(F12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="80" priority="12">
+    <cfRule type="expression" dxfId="38" priority="12">
       <formula>ISBLANK(G10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="79" priority="11">
+    <cfRule type="expression" dxfId="37" priority="11">
       <formula>ISBLANK(G11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="78" priority="10">
+    <cfRule type="expression" dxfId="36" priority="10">
       <formula>ISBLANK(G12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="77" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>ISBLANK(H10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="76" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>ISBLANK(H11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="75" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>ISBLANK(H12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="74" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>ISBLANK(F13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="73" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>ISBLANK(G13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="72" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>ISBLANK(H13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="71" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>ISBLANK(F14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>ISBLANK(G14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="69" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>ISBLANK(H14)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4205,7 +4239,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4809,7 +4843,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F25 A2:A25">
-    <cfRule type="expression" dxfId="60" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4869,12 +4903,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O403"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B351" sqref="A351:XFD380"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4950,10 +4984,10 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -4962,16 +4996,21 @@
       <c r="F2">
         <v>25</v>
       </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2"/>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3">
@@ -4980,10 +5019,10 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -4992,21 +5031,16 @@
       <c r="F3">
         <v>25</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3">
@@ -5344,7 +5378,7 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" s="3"/>
@@ -5379,7 +5413,7 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>13</v>
       </c>
       <c r="L14" s="3"/>
@@ -5450,7 +5484,7 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" s="3"/>
@@ -5485,7 +5519,7 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>16</v>
       </c>
       <c r="L17" s="3"/>
@@ -5552,7 +5586,7 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" s="3"/>
@@ -5587,7 +5621,7 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>19</v>
       </c>
       <c r="L20" s="3"/>
@@ -5622,7 +5656,7 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" s="3"/>
@@ -5692,7 +5726,7 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>22</v>
       </c>
       <c r="L23" s="3"/>
@@ -5724,7 +5758,7 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" s="3"/>
@@ -5794,7 +5828,7 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>25</v>
       </c>
       <c r="L26" s="3"/>
@@ -5826,7 +5860,7 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" s="3"/>
@@ -6167,7 +6201,7 @@
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" s="3"/>
@@ -6202,7 +6236,7 @@
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <v>37</v>
       </c>
       <c r="L38" s="3"/>
@@ -6272,7 +6306,7 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" s="3"/>
@@ -6307,7 +6341,7 @@
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>40</v>
       </c>
       <c r="L41" s="3"/>
@@ -6377,7 +6411,7 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" s="3"/>
@@ -6412,7 +6446,7 @@
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <v>43</v>
       </c>
       <c r="L44" s="3"/>
@@ -6447,7 +6481,7 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" s="3"/>
@@ -6517,7 +6551,7 @@
       <c r="J47">
         <v>0</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>46</v>
       </c>
       <c r="L47" s="3"/>
@@ -6552,7 +6586,7 @@
       <c r="J48">
         <v>0</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" s="3"/>
@@ -6622,7 +6656,7 @@
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <v>49</v>
       </c>
       <c r="L50" s="3"/>
@@ -6657,7 +6691,7 @@
       <c r="J51">
         <v>0</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" s="3"/>
@@ -7007,7 +7041,7 @@
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" s="3"/>
@@ -7042,7 +7076,7 @@
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <v>61</v>
       </c>
       <c r="L62" s="3"/>
@@ -7112,7 +7146,7 @@
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" s="3"/>
@@ -7148,7 +7182,7 @@
       <c r="J65">
         <v>0</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="3">
         <v>64</v>
       </c>
       <c r="L65" s="3"/>
@@ -7219,7 +7253,7 @@
       <c r="J67">
         <v>0</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" s="3"/>
@@ -7254,7 +7288,7 @@
       <c r="J68">
         <v>0</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="3">
         <v>67</v>
       </c>
       <c r="L68" s="3"/>
@@ -7289,7 +7323,7 @@
       <c r="J69">
         <v>0</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" s="3"/>
@@ -7359,7 +7393,7 @@
       <c r="J71">
         <v>0</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="3">
         <v>70</v>
       </c>
       <c r="L71" s="3"/>
@@ -7394,7 +7428,7 @@
       <c r="J72">
         <v>0</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" s="3"/>
@@ -7464,7 +7498,7 @@
       <c r="J74">
         <v>0</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="3">
         <v>73</v>
       </c>
       <c r="L74" s="3"/>
@@ -7499,7 +7533,7 @@
       <c r="J75">
         <v>0</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" s="3"/>
@@ -7706,7 +7740,7 @@
       <c r="J81">
         <v>0</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="3">
         <v>80</v>
       </c>
       <c r="L81" s="3"/>
@@ -7741,7 +7775,7 @@
       <c r="J82">
         <v>0</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="3">
         <v>81</v>
       </c>
       <c r="L82" s="3"/>
@@ -7776,7 +7810,7 @@
       <c r="J83">
         <v>0</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83">
         <v>82</v>
       </c>
       <c r="L83" s="3"/>
@@ -7881,7 +7915,7 @@
       <c r="J86">
         <v>0</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="3">
         <v>85</v>
       </c>
       <c r="L86" s="3"/>
@@ -7913,7 +7947,7 @@
       <c r="J87">
         <v>0</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="3">
         <v>86</v>
       </c>
       <c r="L87" s="3"/>
@@ -7945,7 +7979,7 @@
       <c r="J88">
         <v>0</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88">
         <v>87</v>
       </c>
       <c r="L88" s="3"/>
@@ -8012,7 +8046,7 @@
       <c r="J90">
         <v>0</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <v>89</v>
       </c>
       <c r="L90" s="3"/>
@@ -8082,7 +8116,7 @@
       <c r="J92">
         <v>0</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <v>91</v>
       </c>
       <c r="L92" s="3"/>
@@ -8117,7 +8151,7 @@
       <c r="J93">
         <v>0</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93">
         <v>92</v>
       </c>
       <c r="L93" s="3"/>
@@ -8187,7 +8221,7 @@
       <c r="J95">
         <v>0</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <v>94</v>
       </c>
       <c r="L95" s="3"/>
@@ -8257,7 +8291,7 @@
       <c r="J97">
         <v>0</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <v>96</v>
       </c>
       <c r="L97" s="3"/>
@@ -8327,7 +8361,7 @@
       <c r="J99">
         <v>0</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99">
         <v>98</v>
       </c>
       <c r="L99" s="3"/>
@@ -8362,7 +8396,7 @@
       <c r="J100">
         <v>0</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <v>99</v>
       </c>
       <c r="L100" s="3"/>
@@ -8432,7 +8466,7 @@
       <c r="J102">
         <v>0</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
         <v>101</v>
       </c>
       <c r="L102" s="3"/>
@@ -8502,7 +8536,7 @@
       <c r="J104">
         <v>0</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104">
         <v>103</v>
       </c>
       <c r="L104" s="3"/>
@@ -8537,7 +8571,7 @@
       <c r="J105">
         <v>0</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="3">
         <v>104</v>
       </c>
       <c r="L105" s="3"/>
@@ -8572,7 +8606,7 @@
       <c r="J106">
         <v>0</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="3">
         <v>105</v>
       </c>
       <c r="L106" s="3"/>
@@ -8677,7 +8711,7 @@
       <c r="J109">
         <v>0</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109">
         <v>108</v>
       </c>
       <c r="L109" s="3"/>
@@ -8712,7 +8746,7 @@
       <c r="J110">
         <v>0</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="3">
         <v>109</v>
       </c>
       <c r="L110" s="3"/>
@@ -8747,7 +8781,7 @@
       <c r="J111">
         <v>0</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="3">
         <v>110</v>
       </c>
       <c r="L111" s="3"/>
@@ -8922,7 +8956,7 @@
       <c r="J116">
         <v>0</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="3">
         <v>115</v>
       </c>
       <c r="L116" s="3"/>
@@ -9094,7 +9128,7 @@
       <c r="J121">
         <v>0</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="3">
         <v>120</v>
       </c>
       <c r="L121" s="3"/>
@@ -9164,7 +9198,7 @@
       <c r="J123">
         <v>0</v>
       </c>
-      <c r="K123" s="3">
+      <c r="K123">
         <v>122</v>
       </c>
       <c r="L123" s="3"/>
@@ -9199,7 +9233,7 @@
       <c r="J124">
         <v>0</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="3">
         <v>123</v>
       </c>
       <c r="L124" s="3"/>
@@ -9374,7 +9408,7 @@
       <c r="J129">
         <v>0</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="3">
         <v>128</v>
       </c>
       <c r="L129" s="3"/>
@@ -9581,7 +9615,7 @@
       <c r="J135">
         <v>0</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="3">
         <v>134</v>
       </c>
       <c r="L135" s="3"/>
@@ -9616,7 +9650,7 @@
       <c r="J136">
         <v>0</v>
       </c>
-      <c r="K136" s="3">
+      <c r="K136">
         <v>135</v>
       </c>
       <c r="L136" s="3"/>
@@ -9651,7 +9685,7 @@
       <c r="J137">
         <v>0</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="3">
         <v>136</v>
       </c>
       <c r="L137" s="3"/>
@@ -9855,7 +9889,7 @@
       <c r="J143">
         <v>0</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="3">
         <v>142</v>
       </c>
       <c r="L143" s="3"/>
@@ -9890,7 +9924,7 @@
       <c r="J144">
         <v>0</v>
       </c>
-      <c r="K144" s="3">
+      <c r="K144">
         <v>143</v>
       </c>
       <c r="L144" s="3"/>
@@ -9925,7 +9959,7 @@
       <c r="J145">
         <v>0</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="3">
         <v>144</v>
       </c>
       <c r="L145" s="3"/>
@@ -10135,7 +10169,7 @@
       <c r="J151">
         <v>0</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="3">
         <v>150</v>
       </c>
       <c r="L151" s="3"/>
@@ -10170,7 +10204,7 @@
       <c r="J152">
         <v>0</v>
       </c>
-      <c r="K152" s="3">
+      <c r="K152">
         <v>151</v>
       </c>
       <c r="L152" s="3"/>
@@ -10205,7 +10239,7 @@
       <c r="J153">
         <v>0</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="3">
         <v>152</v>
       </c>
       <c r="L153" s="3"/>
@@ -10413,7 +10447,7 @@
       <c r="J159">
         <v>0</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="3">
         <v>158</v>
       </c>
       <c r="L159" s="3"/>
@@ -10448,7 +10482,7 @@
       <c r="J160">
         <v>0</v>
       </c>
-      <c r="K160" s="3">
+      <c r="K160">
         <v>159</v>
       </c>
       <c r="L160" s="3"/>
@@ -10483,7 +10517,7 @@
       <c r="J161">
         <v>0</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="3">
         <v>160</v>
       </c>
       <c r="L161" s="3"/>
@@ -10693,7 +10727,7 @@
       <c r="J167">
         <v>0</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="3">
         <v>166</v>
       </c>
       <c r="L167" s="3"/>
@@ -10728,7 +10762,7 @@
       <c r="J168">
         <v>0</v>
       </c>
-      <c r="K168" s="3">
+      <c r="K168">
         <v>167</v>
       </c>
       <c r="L168" s="3"/>
@@ -10763,7 +10797,7 @@
       <c r="J169">
         <v>0</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="3">
         <v>168</v>
       </c>
       <c r="L169" s="3"/>
@@ -10964,7 +10998,7 @@
       <c r="J175">
         <v>0</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="3">
         <v>174</v>
       </c>
       <c r="L175" s="3"/>
@@ -10999,7 +11033,7 @@
       <c r="J176">
         <v>0</v>
       </c>
-      <c r="K176" s="3">
+      <c r="K176">
         <v>175</v>
       </c>
       <c r="L176" s="3"/>
@@ -11034,7 +11068,7 @@
       <c r="J177">
         <v>0</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="3">
         <v>176</v>
       </c>
       <c r="L177" s="3"/>
@@ -11253,7 +11287,7 @@
       <c r="J183">
         <v>0</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="3">
         <v>182</v>
       </c>
       <c r="L183" s="3" t="s">
@@ -11294,7 +11328,7 @@
       <c r="J184">
         <v>0</v>
       </c>
-      <c r="K184" s="3">
+      <c r="K184">
         <v>183</v>
       </c>
       <c r="L184" s="3" t="s">
@@ -11304,7 +11338,7 @@
         <v>137</v>
       </c>
       <c r="N184" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O184" s="3"/>
     </row>
@@ -11313,31 +11347,40 @@
         <v>1</v>
       </c>
       <c r="B185" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>304</v>
+        <v>468</v>
       </c>
       <c r="D185" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E185" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F185">
+        <v>50</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185">
-        <v>1</v>
-      </c>
-      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="K185" s="3">
         <v>184</v>
       </c>
-      <c r="L185" s="3"/>
-      <c r="M185" s="3"/>
-      <c r="N185" s="3"/>
+      <c r="L185" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O185" s="3"/>
     </row>
     <row r="186" spans="1:15">
@@ -11348,10 +11391,10 @@
         <v>10</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D186" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" t="s">
         <v>6</v>
@@ -11389,10 +11432,10 @@
         <v>10</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="D187" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E187" t="s">
         <v>6</v>
@@ -11403,12 +11446,12 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
-      <c r="K187" s="3">
+      <c r="K187">
         <v>186</v>
       </c>
       <c r="L187" s="3" t="s">
@@ -11430,10 +11473,10 @@
         <v>10</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D188" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E188" t="s">
         <v>6</v>
@@ -11449,7 +11492,7 @@
       <c r="J188">
         <v>0</v>
       </c>
-      <c r="K188">
+      <c r="K188" s="3">
         <v>187</v>
       </c>
       <c r="L188" s="3" t="s">
@@ -11471,10 +11514,10 @@
         <v>10</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>492</v>
+        <v>347</v>
       </c>
       <c r="D189" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E189" t="s">
         <v>6</v>
@@ -11490,7 +11533,7 @@
       <c r="J189">
         <v>0</v>
       </c>
-      <c r="K189" s="3">
+      <c r="K189">
         <v>188</v>
       </c>
       <c r="L189" s="3" t="s">
@@ -11500,7 +11543,7 @@
         <v>137</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O189" s="3"/>
     </row>
@@ -11509,24 +11552,24 @@
         <v>1</v>
       </c>
       <c r="B190" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>347</v>
+        <v>493</v>
       </c>
       <c r="D190" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E190" t="s">
         <v>6</v>
       </c>
       <c r="F190">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -11534,15 +11577,9 @@
       <c r="K190" s="3">
         <v>189</v>
       </c>
-      <c r="L190" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M190" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N190" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="L190" s="3"/>
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
       <c r="O190" s="3"/>
     </row>
     <row r="191" spans="1:15">
@@ -11550,16 +11587,19 @@
         <v>1</v>
       </c>
       <c r="B191" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>304</v>
+        <v>494</v>
       </c>
       <c r="D191" s="3">
-        <v>6</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>305</v>
+        <v>2</v>
+      </c>
+      <c r="E191" t="s">
+        <v>6</v>
+      </c>
+      <c r="F191">
+        <v>255</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -11567,9 +11607,9 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>1</v>
-      </c>
-      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="K191" s="3">
         <v>190</v>
       </c>
       <c r="L191" s="3"/>
@@ -11585,26 +11625,26 @@
         <v>11</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>493</v>
+        <v>347</v>
       </c>
       <c r="D192" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E192" t="s">
         <v>6</v>
       </c>
       <c r="F192">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192">
         <v>0</v>
       </c>
-      <c r="K192" s="3">
+      <c r="K192">
         <v>191</v>
       </c>
       <c r="L192" s="3"/>
@@ -11620,16 +11660,13 @@
         <v>11</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>494</v>
+        <v>304</v>
       </c>
       <c r="D193" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>6</v>
-      </c>
-      <c r="F193">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -11637,9 +11674,9 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <v>0</v>
-      </c>
-      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="K193" s="3">
         <v>192</v>
       </c>
       <c r="L193" s="3"/>
@@ -11652,24 +11689,24 @@
         <v>1</v>
       </c>
       <c r="B194" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>347</v>
+        <v>495</v>
       </c>
       <c r="D194" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E194" t="s">
         <v>6</v>
       </c>
       <c r="F194">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -11687,24 +11724,27 @@
         <v>1</v>
       </c>
       <c r="B195" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>304</v>
+        <v>496</v>
       </c>
       <c r="D195" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K195">
         <v>194</v>
@@ -11722,16 +11762,16 @@
         <v>12</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D196" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E196" t="s">
         <v>6</v>
       </c>
       <c r="F196">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
@@ -11757,10 +11797,10 @@
         <v>12</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D197" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E197" t="s">
         <v>6</v>
@@ -11771,7 +11811,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -11792,21 +11832,21 @@
         <v>12</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D198" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E198" t="s">
         <v>6</v>
       </c>
       <c r="F198">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -11827,10 +11867,10 @@
         <v>12</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D199" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E199" t="s">
         <v>6</v>
@@ -11846,7 +11886,7 @@
       <c r="J199">
         <v>0</v>
       </c>
-      <c r="K199">
+      <c r="K199" s="3">
         <v>198</v>
       </c>
       <c r="L199" s="3"/>
@@ -11862,10 +11902,10 @@
         <v>12</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D200" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E200" t="s">
         <v>6</v>
@@ -11881,7 +11921,7 @@
       <c r="J200">
         <v>0</v>
       </c>
-      <c r="K200" s="3">
+      <c r="K200">
         <v>199</v>
       </c>
       <c r="L200" s="3"/>
@@ -11897,16 +11937,16 @@
         <v>12</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D201" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E201" t="s">
         <v>6</v>
       </c>
       <c r="F201">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -11916,7 +11956,7 @@
       <c r="J201">
         <v>0</v>
       </c>
-      <c r="K201">
+      <c r="K201" s="3">
         <v>200</v>
       </c>
       <c r="L201" s="3"/>
@@ -11932,16 +11972,16 @@
         <v>12</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D202" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E202" t="s">
         <v>6</v>
       </c>
       <c r="F202">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
@@ -11967,16 +12007,16 @@
         <v>12</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D203" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
         <v>6</v>
       </c>
       <c r="F203">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -12002,16 +12042,16 @@
         <v>12</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D204" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
         <v>6</v>
       </c>
       <c r="F204">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
@@ -12037,16 +12077,16 @@
         <v>12</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D205" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E205" t="s">
         <v>6</v>
       </c>
       <c r="F205">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
@@ -12072,16 +12112,16 @@
         <v>12</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D206" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E206" t="s">
         <v>6</v>
       </c>
       <c r="F206">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -12107,16 +12147,16 @@
         <v>12</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D207" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E207" t="s">
         <v>6</v>
       </c>
       <c r="F207">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -12126,7 +12166,7 @@
       <c r="J207">
         <v>0</v>
       </c>
-      <c r="K207">
+      <c r="K207" s="3">
         <v>206</v>
       </c>
       <c r="L207" s="3"/>
@@ -12142,16 +12182,16 @@
         <v>12</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D208" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E208" t="s">
         <v>6</v>
       </c>
       <c r="F208">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -12161,7 +12201,7 @@
       <c r="J208">
         <v>0</v>
       </c>
-      <c r="K208" s="3">
+      <c r="K208">
         <v>207</v>
       </c>
       <c r="L208" s="3"/>
@@ -12177,10 +12217,10 @@
         <v>12</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D209" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E209" t="s">
         <v>6</v>
@@ -12196,7 +12236,7 @@
       <c r="J209">
         <v>0</v>
       </c>
-      <c r="K209">
+      <c r="K209" s="3">
         <v>208</v>
       </c>
       <c r="L209" s="3"/>
@@ -12212,16 +12252,16 @@
         <v>12</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D210" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E210" t="s">
         <v>6</v>
       </c>
       <c r="F210">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
@@ -12247,16 +12287,16 @@
         <v>12</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>510</v>
+        <v>347</v>
       </c>
       <c r="D211" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E211" t="s">
         <v>6</v>
       </c>
       <c r="F211">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
@@ -12282,16 +12322,13 @@
         <v>12</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>511</v>
+        <v>304</v>
       </c>
       <c r="D212" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E212" t="s">
-        <v>6</v>
-      </c>
-      <c r="F212">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
@@ -12299,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K212" s="3">
         <v>211</v>
@@ -12314,24 +12351,24 @@
         <v>1</v>
       </c>
       <c r="B213" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>347</v>
+        <v>512</v>
       </c>
       <c r="D213" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E213" t="s">
         <v>6</v>
       </c>
       <c r="F213">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -12349,24 +12386,27 @@
         <v>1</v>
       </c>
       <c r="B214" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>304</v>
+        <v>513</v>
       </c>
       <c r="D214" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F214">
+        <v>25</v>
       </c>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K214" s="3">
         <v>213</v>
@@ -12384,16 +12424,16 @@
         <v>13</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D215" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E215" t="s">
         <v>6</v>
       </c>
       <c r="F215">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
@@ -12403,7 +12443,7 @@
       <c r="J215">
         <v>0</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="3">
         <v>214</v>
       </c>
       <c r="L215" s="3"/>
@@ -12419,10 +12459,10 @@
         <v>13</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D216" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E216" t="s">
         <v>6</v>
@@ -12433,12 +12473,12 @@
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216">
         <v>0</v>
       </c>
-      <c r="K216" s="3">
+      <c r="K216">
         <v>215</v>
       </c>
       <c r="L216" s="3"/>
@@ -12454,26 +12494,26 @@
         <v>13</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D217" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E217" t="s">
         <v>6</v>
       </c>
       <c r="F217">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="I217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217">
         <v>0</v>
       </c>
-      <c r="K217">
+      <c r="K217" s="3">
         <v>216</v>
       </c>
       <c r="L217" s="3"/>
@@ -12489,10 +12529,10 @@
         <v>13</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D218" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E218" t="s">
         <v>6</v>
@@ -12524,10 +12564,10 @@
         <v>13</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D219" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E219" t="s">
         <v>6</v>
@@ -12559,16 +12599,16 @@
         <v>13</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D220" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E220" t="s">
         <v>6</v>
       </c>
       <c r="F220">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
@@ -12594,16 +12634,16 @@
         <v>13</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D221" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E221" t="s">
         <v>6</v>
       </c>
       <c r="F221">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
@@ -12629,16 +12669,16 @@
         <v>13</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D222" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
         <v>6</v>
       </c>
       <c r="F222">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
@@ -12664,16 +12704,16 @@
         <v>13</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D223" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
         <v>6</v>
       </c>
       <c r="F223">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
@@ -12683,7 +12723,7 @@
       <c r="J223">
         <v>0</v>
       </c>
-      <c r="K223">
+      <c r="K223" s="3">
         <v>222</v>
       </c>
       <c r="L223" s="3"/>
@@ -12699,16 +12739,16 @@
         <v>13</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D224" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E224" t="s">
         <v>6</v>
       </c>
       <c r="F224">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
@@ -12718,7 +12758,7 @@
       <c r="J224">
         <v>0</v>
       </c>
-      <c r="K224" s="3">
+      <c r="K224">
         <v>223</v>
       </c>
       <c r="L224" s="3"/>
@@ -12734,16 +12774,16 @@
         <v>13</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D225" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E225" t="s">
         <v>6</v>
       </c>
       <c r="F225">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
@@ -12753,7 +12793,7 @@
       <c r="J225">
         <v>0</v>
       </c>
-      <c r="K225">
+      <c r="K225" s="3">
         <v>224</v>
       </c>
       <c r="L225" s="3"/>
@@ -12769,16 +12809,16 @@
         <v>13</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D226" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E226" t="s">
         <v>6</v>
       </c>
       <c r="F226">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
@@ -12804,16 +12844,16 @@
         <v>13</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D227" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E227" t="s">
         <v>6</v>
       </c>
       <c r="F227">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
@@ -12839,10 +12879,10 @@
         <v>13</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D228" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E228" t="s">
         <v>6</v>
@@ -12874,16 +12914,16 @@
         <v>13</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D229" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E229" t="s">
         <v>6</v>
       </c>
       <c r="F229">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
@@ -12909,16 +12949,16 @@
         <v>13</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>527</v>
+        <v>347</v>
       </c>
       <c r="D230" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E230" t="s">
         <v>6</v>
       </c>
       <c r="F230">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
@@ -12944,16 +12984,13 @@
         <v>13</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>528</v>
+        <v>304</v>
       </c>
       <c r="D231" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E231" t="s">
-        <v>6</v>
-      </c>
-      <c r="F231">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
@@ -12961,9 +12998,9 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <v>0</v>
-      </c>
-      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="K231" s="3">
         <v>230</v>
       </c>
       <c r="L231" s="3"/>
@@ -12976,34 +13013,37 @@
         <v>1</v>
       </c>
       <c r="B232" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>347</v>
+        <v>534</v>
       </c>
       <c r="D232" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>6</v>
-      </c>
-      <c r="F232">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232">
         <v>0</v>
       </c>
-      <c r="K232" s="3">
+      <c r="K232">
         <v>231</v>
       </c>
-      <c r="L232" s="3"/>
-      <c r="M232" s="3"/>
-      <c r="N232" s="3"/>
+      <c r="L232" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M232" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N232" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O232" s="3"/>
     </row>
     <row r="233" spans="1:15">
@@ -13011,31 +13051,37 @@
         <v>1</v>
       </c>
       <c r="B233" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>304</v>
+        <v>535</v>
       </c>
       <c r="D233" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>305</v>
+        <v>3</v>
       </c>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233">
-        <v>1</v>
-      </c>
-      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="K233" s="3">
         <v>232</v>
       </c>
-      <c r="L233" s="3"/>
-      <c r="M233" s="3"/>
-      <c r="N233" s="3"/>
+      <c r="L233" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M233" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N233" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O233" s="3"/>
     </row>
     <row r="234" spans="1:15">
@@ -13049,7 +13095,7 @@
         <v>529</v>
       </c>
       <c r="D234" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E234" t="s">
         <v>3</v>
@@ -13087,7 +13133,7 @@
         <v>530</v>
       </c>
       <c r="D235" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E235" t="s">
         <v>6</v>
@@ -13128,7 +13174,7 @@
         <v>531</v>
       </c>
       <c r="D236" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E236" t="s">
         <v>6</v>
@@ -13169,7 +13215,7 @@
         <v>532</v>
       </c>
       <c r="D237" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E237" t="s">
         <v>3</v>
@@ -13207,7 +13253,7 @@
         <v>533</v>
       </c>
       <c r="D238" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E238" t="s">
         <v>3</v>
@@ -13242,10 +13288,10 @@
         <v>14</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D239" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E239" t="s">
         <v>3</v>
@@ -13253,12 +13299,12 @@
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239">
         <v>0</v>
       </c>
-      <c r="K239">
+      <c r="K239" s="3">
         <v>238</v>
       </c>
       <c r="L239" s="3" t="s">
@@ -13280,23 +13326,26 @@
         <v>14</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D240" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E240" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F240">
+        <v>80</v>
       </c>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240">
         <v>0</v>
       </c>
-      <c r="K240" s="3">
+      <c r="K240">
         <v>239</v>
       </c>
       <c r="L240" s="3" t="s">
@@ -13318,13 +13367,16 @@
         <v>14</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D241" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F241">
+        <v>80</v>
       </c>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
@@ -13334,7 +13386,7 @@
       <c r="J241">
         <v>0</v>
       </c>
-      <c r="K241">
+      <c r="K241" s="3">
         <v>240</v>
       </c>
       <c r="L241" s="3" t="s">
@@ -13356,16 +13408,16 @@
         <v>14</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D242" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E242" t="s">
         <v>6</v>
       </c>
       <c r="F242">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
@@ -13397,16 +13449,16 @@
         <v>14</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D243" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E243" t="s">
         <v>6</v>
       </c>
       <c r="F243">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
@@ -13438,16 +13490,16 @@
         <v>14</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D244" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E244" t="s">
         <v>6</v>
       </c>
       <c r="F244">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
@@ -13479,16 +13531,13 @@
         <v>14</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D245" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E245" t="s">
-        <v>6</v>
-      </c>
-      <c r="F245">
-        <v>800</v>
+        <v>112</v>
       </c>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
@@ -13520,16 +13569,16 @@
         <v>14</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>541</v>
+        <v>347</v>
       </c>
       <c r="D246" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E246" t="s">
         <v>6</v>
       </c>
       <c r="F246">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
@@ -13549,7 +13598,7 @@
         <v>137</v>
       </c>
       <c r="N246" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O246" s="3"/>
     </row>
@@ -13558,26 +13607,29 @@
         <v>1</v>
       </c>
       <c r="B247" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D247" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E247" t="s">
-        <v>112</v>
+        <v>6</v>
+      </c>
+      <c r="F247">
+        <v>50</v>
       </c>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247">
         <v>0</v>
       </c>
-      <c r="K247">
+      <c r="K247" s="3">
         <v>246</v>
       </c>
       <c r="L247" s="3" t="s">
@@ -13596,19 +13648,19 @@
         <v>1</v>
       </c>
       <c r="B248" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>347</v>
+        <v>544</v>
       </c>
       <c r="D248" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E248" t="s">
         <v>6</v>
       </c>
       <c r="F248">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
@@ -13618,7 +13670,7 @@
       <c r="J248">
         <v>0</v>
       </c>
-      <c r="K248" s="3">
+      <c r="K248">
         <v>247</v>
       </c>
       <c r="L248" s="3" t="s">
@@ -13637,16 +13689,19 @@
         <v>1</v>
       </c>
       <c r="B249" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>304</v>
+        <v>545</v>
       </c>
       <c r="D249" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E249" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F249">
+        <v>50</v>
       </c>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
@@ -13654,14 +13709,20 @@
         <v>0</v>
       </c>
       <c r="J249">
-        <v>1</v>
-      </c>
-      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="K249" s="3">
         <v>248</v>
       </c>
-      <c r="L249" s="3"/>
-      <c r="M249" s="3"/>
-      <c r="N249" s="3"/>
+      <c r="L249" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N249" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O249" s="3"/>
     </row>
     <row r="250" spans="1:15">
@@ -13672,21 +13733,18 @@
         <v>15</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D250" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E250" t="s">
-        <v>6</v>
-      </c>
-      <c r="F250">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250">
         <v>0</v>
@@ -13713,10 +13771,10 @@
         <v>15</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D251" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E251" t="s">
         <v>6</v>
@@ -13754,10 +13812,10 @@
         <v>15</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D252" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E252" t="s">
         <v>6</v>
@@ -13795,13 +13853,16 @@
         <v>15</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D253" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E253" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F253">
+        <v>50</v>
       </c>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
@@ -13833,10 +13894,10 @@
         <v>15</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D254" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E254" t="s">
         <v>6</v>
@@ -13874,10 +13935,10 @@
         <v>15</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D255" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E255" t="s">
         <v>6</v>
@@ -13893,7 +13954,7 @@
       <c r="J255">
         <v>0</v>
       </c>
-      <c r="K255">
+      <c r="K255" s="3">
         <v>254</v>
       </c>
       <c r="L255" s="3" t="s">
@@ -13915,10 +13976,10 @@
         <v>15</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D256" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E256" t="s">
         <v>6</v>
@@ -13934,7 +13995,7 @@
       <c r="J256">
         <v>0</v>
       </c>
-      <c r="K256" s="3">
+      <c r="K256">
         <v>255</v>
       </c>
       <c r="L256" s="3" t="s">
@@ -13956,10 +14017,10 @@
         <v>15</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D257" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E257" t="s">
         <v>6</v>
@@ -13975,7 +14036,7 @@
       <c r="J257">
         <v>0</v>
       </c>
-      <c r="K257">
+      <c r="K257" s="3">
         <v>256</v>
       </c>
       <c r="L257" s="3" t="s">
@@ -13997,16 +14058,16 @@
         <v>15</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>551</v>
+        <v>347</v>
       </c>
       <c r="D258" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E258" t="s">
         <v>6</v>
       </c>
       <c r="F258">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
@@ -14026,7 +14087,7 @@
         <v>137</v>
       </c>
       <c r="N258" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O258" s="3"/>
     </row>
@@ -14035,24 +14096,24 @@
         <v>1</v>
       </c>
       <c r="B259" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D259" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E259" t="s">
         <v>6</v>
       </c>
       <c r="F259">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="I259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259">
         <v>0</v>
@@ -14060,15 +14121,9 @@
       <c r="K259">
         <v>258</v>
       </c>
-      <c r="L259" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M259" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N259" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
+      <c r="N259" s="3"/>
       <c r="O259" s="3"/>
     </row>
     <row r="260" spans="1:15">
@@ -14076,19 +14131,19 @@
         <v>1</v>
       </c>
       <c r="B260" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D260" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E260" t="s">
         <v>6</v>
       </c>
       <c r="F260">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
@@ -14101,15 +14156,9 @@
       <c r="K260" s="3">
         <v>259</v>
       </c>
-      <c r="L260" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M260" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N260" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
       <c r="O260" s="3"/>
     </row>
     <row r="261" spans="1:15">
@@ -14117,13 +14166,13 @@
         <v>1</v>
       </c>
       <c r="B261" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>347</v>
       </c>
       <c r="D261" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E261" t="s">
         <v>6</v>
@@ -14142,15 +14191,9 @@
       <c r="K261">
         <v>260</v>
       </c>
-      <c r="L261" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M261" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N261" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
+      <c r="N261" s="3"/>
       <c r="O261" s="3"/>
     </row>
     <row r="262" spans="1:15">
@@ -14158,13 +14201,13 @@
         <v>1</v>
       </c>
       <c r="B262" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>304</v>
       </c>
       <c r="D262" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E262" t="s">
         <v>305</v>
@@ -14190,10 +14233,10 @@
         <v>1</v>
       </c>
       <c r="B263" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D263" s="3">
         <v>1</v>
@@ -14202,7 +14245,7 @@
         <v>6</v>
       </c>
       <c r="F263">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
@@ -14212,12 +14255,18 @@
       <c r="J263">
         <v>0</v>
       </c>
-      <c r="K263">
+      <c r="K263" s="3">
         <v>262</v>
       </c>
-      <c r="L263" s="3"/>
-      <c r="M263" s="3"/>
-      <c r="N263" s="3"/>
+      <c r="L263" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M263" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N263" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O263" s="3"/>
     </row>
     <row r="264" spans="1:15">
@@ -14225,10 +14274,10 @@
         <v>1</v>
       </c>
       <c r="B264" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D264" s="3">
         <v>2</v>
@@ -14237,22 +14286,28 @@
         <v>6</v>
       </c>
       <c r="F264">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264">
         <v>0</v>
       </c>
-      <c r="K264" s="3">
+      <c r="K264">
         <v>263</v>
       </c>
-      <c r="L264" s="3"/>
-      <c r="M264" s="3"/>
-      <c r="N264" s="3"/>
+      <c r="L264" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M264" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N264" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O264" s="3"/>
     </row>
     <row r="265" spans="1:15">
@@ -14260,10 +14315,10 @@
         <v>1</v>
       </c>
       <c r="B265" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D265" s="3">
         <v>3</v>
@@ -14272,22 +14327,28 @@
         <v>6</v>
       </c>
       <c r="F265">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265">
         <v>0</v>
       </c>
-      <c r="K265">
+      <c r="K265" s="3">
         <v>264</v>
       </c>
-      <c r="L265" s="3"/>
-      <c r="M265" s="3"/>
-      <c r="N265" s="3"/>
+      <c r="L265" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M265" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N265" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O265" s="3"/>
     </row>
     <row r="266" spans="1:15">
@@ -14295,16 +14356,19 @@
         <v>1</v>
       </c>
       <c r="B266" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>304</v>
+        <v>558</v>
       </c>
       <c r="D266" s="3">
         <v>4</v>
       </c>
       <c r="E266" t="s">
-        <v>305</v>
+        <v>3</v>
+      </c>
+      <c r="F266">
+        <v>25</v>
       </c>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
@@ -14312,14 +14376,20 @@
         <v>0</v>
       </c>
       <c r="J266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K266" s="3">
         <v>265</v>
       </c>
-      <c r="L266" s="3"/>
-      <c r="M266" s="3"/>
-      <c r="N266" s="3"/>
+      <c r="L266" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M266" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N266" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O266" s="3"/>
     </row>
     <row r="267" spans="1:15">
@@ -14330,10 +14400,10 @@
         <v>17</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D267" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E267" t="s">
         <v>6</v>
@@ -14344,7 +14414,7 @@
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="I267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -14371,10 +14441,10 @@
         <v>17</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D268" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E268" t="s">
         <v>6</v>
@@ -14385,7 +14455,7 @@
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268">
         <v>0</v>
@@ -14412,21 +14482,21 @@
         <v>17</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D269" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E269" t="s">
         <v>6</v>
       </c>
       <c r="F269">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -14441,7 +14511,7 @@
         <v>137</v>
       </c>
       <c r="N269" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O269" s="3"/>
     </row>
@@ -14450,16 +14520,16 @@
         <v>1</v>
       </c>
       <c r="B270" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>558</v>
+        <v>455</v>
       </c>
       <c r="D270" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E270" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F270">
         <v>25</v>
@@ -14467,7 +14537,7 @@
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="I270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -14475,15 +14545,9 @@
       <c r="K270" s="3">
         <v>269</v>
       </c>
-      <c r="L270" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M270" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N270" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="L270" s="3"/>
+      <c r="M270" s="3"/>
+      <c r="N270" s="3"/>
       <c r="O270" s="3"/>
     </row>
     <row r="271" spans="1:15">
@@ -14491,40 +14555,34 @@
         <v>1</v>
       </c>
       <c r="B271" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="D271" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E271" t="s">
         <v>6</v>
       </c>
       <c r="F271">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="I271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J271">
         <v>0</v>
       </c>
-      <c r="K271">
-        <v>267</v>
-      </c>
-      <c r="L271" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M271" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N271" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="K271" s="3">
+        <v>270</v>
+      </c>
+      <c r="L271" s="3"/>
+      <c r="M271" s="3"/>
+      <c r="N271" s="3"/>
       <c r="O271" s="3"/>
     </row>
     <row r="272" spans="1:15">
@@ -14532,40 +14590,34 @@
         <v>1</v>
       </c>
       <c r="B272" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D272" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E272" t="s">
         <v>6</v>
       </c>
       <c r="F272">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="I272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272">
         <v>0</v>
       </c>
-      <c r="K272" s="3">
-        <v>268</v>
-      </c>
-      <c r="L272" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M272" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N272" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="K272">
+        <v>271</v>
+      </c>
+      <c r="L272" s="3"/>
+      <c r="M272" s="3"/>
+      <c r="N272" s="3"/>
       <c r="O272" s="3"/>
     </row>
     <row r="273" spans="1:15">
@@ -14573,40 +14625,34 @@
         <v>1</v>
       </c>
       <c r="B273" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
       <c r="D273" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E273" t="s">
         <v>6</v>
       </c>
       <c r="F273">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="I273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273">
         <v>0</v>
       </c>
       <c r="K273" s="3">
-        <v>269</v>
-      </c>
-      <c r="L273" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M273" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N273" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="L273" s="3"/>
+      <c r="M273" s="3"/>
+      <c r="N273" s="3"/>
       <c r="O273" s="3"/>
     </row>
     <row r="274" spans="1:15">
@@ -14614,27 +14660,30 @@
         <v>1</v>
       </c>
       <c r="B274" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>304</v>
+        <v>493</v>
       </c>
       <c r="D274" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E274" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F274">
+        <v>25</v>
       </c>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="I274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274">
-        <v>1</v>
-      </c>
-      <c r="K274">
-        <v>270</v>
+        <v>0</v>
+      </c>
+      <c r="K274" s="3">
+        <v>273</v>
       </c>
       <c r="L274" s="3"/>
       <c r="M274" s="3"/>
@@ -14649,24 +14698,27 @@
         <v>18</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>561</v>
+        <v>452</v>
       </c>
       <c r="D275" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E275" t="s">
-        <v>348</v>
+        <v>6</v>
+      </c>
+      <c r="F275">
+        <v>25</v>
       </c>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="I275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275">
         <v>0</v>
       </c>
-      <c r="K275" s="3">
-        <v>271</v>
+      <c r="K275">
+        <v>274</v>
       </c>
       <c r="L275" s="3"/>
       <c r="M275" s="3"/>
@@ -14681,10 +14733,10 @@
         <v>18</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>447</v>
+        <v>577</v>
       </c>
       <c r="D276" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E276" t="s">
         <v>6</v>
@@ -14701,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="K276" s="3">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L276" s="3"/>
       <c r="M276" s="3"/>
@@ -14716,28 +14768,27 @@
         <v>18</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="D277" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E277" t="s">
-        <v>306</v>
-      </c>
-      <c r="G277" s="3">
-        <v>20</v>
-      </c>
-      <c r="H277" s="3">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F277">
+        <v>25</v>
+      </c>
+      <c r="G277" s="3"/>
+      <c r="H277" s="3"/>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277">
         <v>0</v>
       </c>
       <c r="K277">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L277" s="3"/>
       <c r="M277" s="3"/>
@@ -14752,28 +14803,27 @@
         <v>18</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="D278" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E278" t="s">
-        <v>306</v>
-      </c>
-      <c r="G278" s="3">
-        <v>15</v>
-      </c>
-      <c r="H278" s="3">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F278">
+        <v>25</v>
+      </c>
+      <c r="G278" s="3"/>
+      <c r="H278" s="3"/>
       <c r="I278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278">
         <v>0</v>
       </c>
       <c r="K278" s="3">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L278" s="3"/>
       <c r="M278" s="3"/>
@@ -14788,10 +14838,10 @@
         <v>18</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D279" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E279" t="s">
         <v>305</v>
@@ -14805,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="K279" s="3">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L279" s="3"/>
       <c r="M279" s="3"/>
@@ -14820,28 +14870,24 @@
         <v>18</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D280" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E280" t="s">
-        <v>306</v>
-      </c>
-      <c r="G280" s="3">
-        <v>15</v>
-      </c>
-      <c r="H280" s="3">
-        <v>0</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G280" s="3"/>
+      <c r="H280" s="3"/>
       <c r="I280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280">
         <v>0</v>
       </c>
       <c r="K280">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L280" s="3"/>
       <c r="M280" s="3"/>
@@ -14856,10 +14902,10 @@
         <v>18</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D281" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E281" t="s">
         <v>348</v>
@@ -14873,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="K281" s="3">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L281" s="3"/>
       <c r="M281" s="3"/>
@@ -14888,27 +14934,28 @@
         <v>18</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>455</v>
+        <v>562</v>
       </c>
       <c r="D282" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E282" t="s">
-        <v>6</v>
-      </c>
-      <c r="F282">
-        <v>25</v>
-      </c>
-      <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G282" s="3">
+        <v>20</v>
+      </c>
+      <c r="H282" s="3">
+        <v>0</v>
+      </c>
       <c r="I282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282">
         <v>0</v>
       </c>
       <c r="K282" s="3">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L282" s="3"/>
       <c r="M282" s="3"/>
@@ -14923,19 +14970,19 @@
         <v>18</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D283" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E283" t="s">
         <v>306</v>
       </c>
       <c r="G283" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H283" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283">
         <v>0</v>
@@ -14944,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="K283">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L283" s="3"/>
       <c r="M283" s="3"/>
@@ -14959,27 +15006,28 @@
         <v>18</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="D284" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E284" t="s">
-        <v>6</v>
-      </c>
-      <c r="F284">
-        <v>25</v>
-      </c>
-      <c r="G284" s="3"/>
-      <c r="H284" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G284" s="3">
+        <v>15</v>
+      </c>
+      <c r="H284" s="3">
+        <v>0</v>
+      </c>
       <c r="I284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284">
         <v>0</v>
       </c>
       <c r="K284" s="3">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L284" s="3"/>
       <c r="M284" s="3"/>
@@ -14994,24 +15042,24 @@
         <v>18</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D285" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E285" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="I285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285">
         <v>0</v>
       </c>
-      <c r="K285" s="3">
-        <v>281</v>
+      <c r="K285">
+        <v>284</v>
       </c>
       <c r="L285" s="3"/>
       <c r="M285" s="3"/>
@@ -15026,27 +15074,28 @@
         <v>18</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D286" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E286" t="s">
-        <v>6</v>
-      </c>
-      <c r="F286">
-        <v>25</v>
-      </c>
-      <c r="G286" s="3"/>
-      <c r="H286" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G286" s="3">
+        <v>30</v>
+      </c>
+      <c r="H286" s="3">
+        <v>3</v>
+      </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286">
         <v>0</v>
       </c>
-      <c r="K286">
-        <v>282</v>
+      <c r="K286" s="3">
+        <v>285</v>
       </c>
       <c r="L286" s="3"/>
       <c r="M286" s="3"/>
@@ -15064,7 +15113,7 @@
         <v>570</v>
       </c>
       <c r="D287" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E287" t="s">
         <v>6</v>
@@ -15081,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="K287" s="3">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L287" s="3"/>
       <c r="M287" s="3"/>
@@ -15099,7 +15148,7 @@
         <v>571</v>
       </c>
       <c r="D288" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E288" t="s">
         <v>306</v>
@@ -15116,8 +15165,8 @@
       <c r="J288">
         <v>0</v>
       </c>
-      <c r="K288" s="3">
-        <v>284</v>
+      <c r="K288">
+        <v>287</v>
       </c>
       <c r="L288" s="3"/>
       <c r="M288" s="3"/>
@@ -15132,27 +15181,28 @@
         <v>18</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D289" s="3">
+        <v>20</v>
+      </c>
+      <c r="E289" t="s">
+        <v>306</v>
+      </c>
+      <c r="G289" s="3">
         <v>15</v>
       </c>
-      <c r="E289" t="s">
-        <v>6</v>
-      </c>
-      <c r="F289">
-        <v>25</v>
-      </c>
-      <c r="G289" s="3"/>
-      <c r="H289" s="3"/>
+      <c r="H289" s="3">
+        <v>0</v>
+      </c>
       <c r="I289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J289">
         <v>0</v>
       </c>
-      <c r="K289">
-        <v>285</v>
+      <c r="K289" s="3">
+        <v>288</v>
       </c>
       <c r="L289" s="3"/>
       <c r="M289" s="3"/>
@@ -15167,27 +15217,28 @@
         <v>18</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D290" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E290" t="s">
-        <v>6</v>
-      </c>
-      <c r="F290">
-        <v>25</v>
-      </c>
-      <c r="G290" s="3"/>
-      <c r="H290" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G290" s="3">
+        <v>20</v>
+      </c>
+      <c r="H290" s="3">
+        <v>0</v>
+      </c>
       <c r="I290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290">
         <v>0</v>
       </c>
       <c r="K290" s="3">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L290" s="3"/>
       <c r="M290" s="3"/>
@@ -15202,10 +15253,10 @@
         <v>18</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D291" s="3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E291" t="s">
         <v>306</v>
@@ -15222,8 +15273,8 @@
       <c r="J291">
         <v>0</v>
       </c>
-      <c r="K291" s="3">
-        <v>287</v>
+      <c r="K291">
+        <v>290</v>
       </c>
       <c r="L291" s="3"/>
       <c r="M291" s="3"/>
@@ -15238,28 +15289,27 @@
         <v>18</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>575</v>
+        <v>347</v>
       </c>
       <c r="D292" s="3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E292" t="s">
-        <v>306</v>
-      </c>
-      <c r="G292" s="3">
-        <v>20</v>
-      </c>
-      <c r="H292" s="3">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F292">
+        <v>10</v>
+      </c>
+      <c r="G292" s="3"/>
+      <c r="H292" s="3"/>
       <c r="I292">
         <v>0</v>
       </c>
       <c r="J292">
         <v>0</v>
       </c>
-      <c r="K292">
-        <v>288</v>
+      <c r="K292" s="3">
+        <v>291</v>
       </c>
       <c r="L292" s="3"/>
       <c r="M292" s="3"/>
@@ -15274,28 +15324,24 @@
         <v>18</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>576</v>
+        <v>304</v>
       </c>
       <c r="D293" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E293" t="s">
-        <v>306</v>
-      </c>
-      <c r="G293" s="3">
-        <v>15</v>
-      </c>
-      <c r="H293" s="3">
-        <v>0</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G293" s="3"/>
+      <c r="H293" s="3"/>
       <c r="I293">
         <v>0</v>
       </c>
       <c r="J293">
-        <v>0</v>
-      </c>
-      <c r="K293" s="3">
-        <v>289</v>
+        <v>1</v>
+      </c>
+      <c r="K293">
+        <v>292</v>
       </c>
       <c r="L293" s="3"/>
       <c r="M293" s="3"/>
@@ -15307,13 +15353,13 @@
         <v>1</v>
       </c>
       <c r="B294" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>577</v>
+        <v>455</v>
       </c>
       <c r="D294" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E294" t="s">
         <v>6</v>
@@ -15330,7 +15376,7 @@
         <v>0</v>
       </c>
       <c r="K294" s="3">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L294" s="3"/>
       <c r="M294" s="3"/>
@@ -15342,13 +15388,13 @@
         <v>1</v>
       </c>
       <c r="B295" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>578</v>
+        <v>350</v>
       </c>
       <c r="D295" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E295" t="s">
         <v>6</v>
@@ -15364,8 +15410,8 @@
       <c r="J295">
         <v>0</v>
       </c>
-      <c r="K295">
-        <v>291</v>
+      <c r="K295" s="3">
+        <v>294</v>
       </c>
       <c r="L295" s="3"/>
       <c r="M295" s="3"/>
@@ -15377,13 +15423,13 @@
         <v>1</v>
       </c>
       <c r="B296" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>452</v>
+        <v>572</v>
       </c>
       <c r="D296" s="3">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E296" t="s">
         <v>6</v>
@@ -15399,8 +15445,8 @@
       <c r="J296">
         <v>0</v>
       </c>
-      <c r="K296" s="3">
-        <v>292</v>
+      <c r="K296">
+        <v>295</v>
       </c>
       <c r="L296" s="3"/>
       <c r="M296" s="3"/>
@@ -15412,22 +15458,23 @@
         <v>1</v>
       </c>
       <c r="B297" s="16">
+        <v>19</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D297" s="3">
+        <v>4</v>
+      </c>
+      <c r="E297" t="s">
+        <v>306</v>
+      </c>
+      <c r="G297" s="3">
         <v>18</v>
       </c>
-      <c r="C297" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D297" s="3">
-        <v>23</v>
-      </c>
-      <c r="E297" t="s">
-        <v>6</v>
-      </c>
-      <c r="F297">
-        <v>10</v>
-      </c>
-      <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
+      <c r="H297" s="3">
+        <v>0</v>
+      </c>
       <c r="I297">
         <v>0</v>
       </c>
@@ -15435,7 +15482,7 @@
         <v>0</v>
       </c>
       <c r="K297" s="3">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L297" s="3"/>
       <c r="M297" s="3"/>
@@ -15447,27 +15494,31 @@
         <v>1</v>
       </c>
       <c r="B298" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>304</v>
+        <v>580</v>
       </c>
       <c r="D298" s="3">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E298" t="s">
-        <v>305</v>
-      </c>
-      <c r="G298" s="3"/>
-      <c r="H298" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G298" s="3">
+        <v>20</v>
+      </c>
+      <c r="H298" s="3">
+        <v>2</v>
+      </c>
       <c r="I298">
         <v>0</v>
       </c>
       <c r="J298">
-        <v>1</v>
-      </c>
-      <c r="K298">
-        <v>294</v>
+        <v>0</v>
+      </c>
+      <c r="K298" s="3">
+        <v>297</v>
       </c>
       <c r="L298" s="3"/>
       <c r="M298" s="3"/>
@@ -15482,27 +15533,28 @@
         <v>19</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>455</v>
+        <v>581</v>
       </c>
       <c r="D299" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E299" t="s">
-        <v>6</v>
-      </c>
-      <c r="F299">
-        <v>25</v>
-      </c>
-      <c r="G299" s="3"/>
-      <c r="H299" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G299" s="3">
+        <v>30</v>
+      </c>
+      <c r="H299" s="3">
+        <v>8</v>
+      </c>
       <c r="I299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299">
         <v>0</v>
       </c>
-      <c r="K299" s="3">
-        <v>295</v>
+      <c r="K299">
+        <v>298</v>
       </c>
       <c r="L299" s="3"/>
       <c r="M299" s="3"/>
@@ -15517,27 +15569,28 @@
         <v>19</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>350</v>
+        <v>582</v>
       </c>
       <c r="D300" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E300" t="s">
-        <v>6</v>
-      </c>
-      <c r="F300">
-        <v>25</v>
-      </c>
-      <c r="G300" s="3"/>
-      <c r="H300" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G300" s="3">
+        <v>18</v>
+      </c>
+      <c r="H300" s="3">
+        <v>8</v>
+      </c>
       <c r="I300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300">
         <v>0</v>
       </c>
       <c r="K300" s="3">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L300" s="3"/>
       <c r="M300" s="3"/>
@@ -15552,27 +15605,27 @@
         <v>19</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>572</v>
+        <v>347</v>
       </c>
       <c r="D301" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E301" t="s">
         <v>6</v>
       </c>
       <c r="F301">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
       <c r="I301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301">
         <v>0</v>
       </c>
       <c r="K301">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L301" s="3"/>
       <c r="M301" s="3"/>
@@ -15587,28 +15640,24 @@
         <v>19</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>579</v>
+        <v>304</v>
       </c>
       <c r="D302" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E302" t="s">
-        <v>306</v>
-      </c>
-      <c r="G302" s="3">
-        <v>18</v>
-      </c>
-      <c r="H302" s="3">
-        <v>0</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G302" s="3"/>
+      <c r="H302" s="3"/>
       <c r="I302">
         <v>0</v>
       </c>
       <c r="J302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K302" s="3">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L302" s="3"/>
       <c r="M302" s="3"/>
@@ -15620,31 +15669,30 @@
         <v>1</v>
       </c>
       <c r="B303" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>580</v>
+        <v>455</v>
       </c>
       <c r="D303" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E303" t="s">
-        <v>306</v>
-      </c>
-      <c r="G303" s="3">
-        <v>20</v>
-      </c>
-      <c r="H303" s="3">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F303">
+        <v>25</v>
+      </c>
+      <c r="G303" s="3"/>
+      <c r="H303" s="3"/>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303">
         <v>0</v>
       </c>
       <c r="K303" s="3">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L303" s="3"/>
       <c r="M303" s="3"/>
@@ -15656,31 +15704,30 @@
         <v>1</v>
       </c>
       <c r="B304" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>581</v>
+        <v>446</v>
       </c>
       <c r="D304" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E304" t="s">
-        <v>306</v>
-      </c>
-      <c r="G304" s="3">
-        <v>30</v>
-      </c>
-      <c r="H304" s="3">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F304">
+        <v>25</v>
+      </c>
+      <c r="G304" s="3"/>
+      <c r="H304" s="3"/>
       <c r="I304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304">
         <v>0</v>
       </c>
       <c r="K304">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L304" s="3"/>
       <c r="M304" s="3"/>
@@ -15692,31 +15739,29 @@
         <v>1</v>
       </c>
       <c r="B305" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>582</v>
+        <v>409</v>
       </c>
       <c r="D305" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E305" t="s">
-        <v>306</v>
-      </c>
-      <c r="G305" s="3">
-        <v>18</v>
-      </c>
-      <c r="H305" s="3">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F305" s="3">
+        <v>25</v>
+      </c>
+      <c r="H305" s="3"/>
       <c r="I305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305">
         <v>0</v>
       </c>
       <c r="K305" s="3">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L305" s="3"/>
       <c r="M305" s="3"/>
@@ -15728,30 +15773,30 @@
         <v>1</v>
       </c>
       <c r="B306" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>347</v>
+        <v>493</v>
       </c>
       <c r="D306" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E306" t="s">
         <v>6</v>
       </c>
       <c r="F306">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
       <c r="I306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306">
         <v>0</v>
       </c>
       <c r="K306" s="3">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L306" s="3"/>
       <c r="M306" s="3"/>
@@ -15763,27 +15808,30 @@
         <v>1</v>
       </c>
       <c r="B307" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>304</v>
+        <v>583</v>
       </c>
       <c r="D307" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E307" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F307">
+        <v>25</v>
       </c>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
       <c r="I307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K307">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L307" s="3"/>
       <c r="M307" s="3"/>
@@ -15798,13 +15846,16 @@
         <v>20</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="D308" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E308" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F308">
+        <v>25</v>
       </c>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
@@ -15815,7 +15866,7 @@
         <v>0</v>
       </c>
       <c r="K308" s="3">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L308" s="3"/>
       <c r="M308" s="3"/>
@@ -15830,16 +15881,16 @@
         <v>20</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="D309" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E309" t="s">
         <v>6</v>
       </c>
       <c r="F309">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
@@ -15849,8 +15900,8 @@
       <c r="J309">
         <v>0</v>
       </c>
-      <c r="K309" s="3">
-        <v>305</v>
+      <c r="K309">
+        <v>308</v>
       </c>
       <c r="L309" s="3"/>
       <c r="M309" s="3"/>
@@ -15865,16 +15916,16 @@
         <v>20</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>446</v>
+        <v>587</v>
       </c>
       <c r="D310" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E310" t="s">
         <v>6</v>
       </c>
       <c r="F310">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
@@ -15884,8 +15935,8 @@
       <c r="J310">
         <v>0</v>
       </c>
-      <c r="K310">
-        <v>306</v>
+      <c r="K310" s="3">
+        <v>309</v>
       </c>
       <c r="L310" s="3"/>
       <c r="M310" s="3"/>
@@ -15900,10 +15951,10 @@
         <v>20</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D311" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E311" t="s">
         <v>6</v>
@@ -15920,7 +15971,7 @@
         <v>0</v>
       </c>
       <c r="K311" s="3">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L311" s="3"/>
       <c r="M311" s="3"/>
@@ -15935,27 +15986,27 @@
         <v>20</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>584</v>
+        <v>512</v>
       </c>
       <c r="D312" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E312" t="s">
         <v>6</v>
       </c>
       <c r="F312">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
       <c r="I312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J312">
         <v>0</v>
       </c>
-      <c r="K312" s="3">
-        <v>308</v>
+      <c r="K312">
+        <v>311</v>
       </c>
       <c r="L312" s="3"/>
       <c r="M312" s="3"/>
@@ -15970,16 +16021,16 @@
         <v>20</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>493</v>
+        <v>585</v>
       </c>
       <c r="D313" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E313" t="s">
         <v>6</v>
       </c>
       <c r="F313">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
@@ -15989,8 +16040,8 @@
       <c r="J313">
         <v>0</v>
       </c>
-      <c r="K313">
-        <v>309</v>
+      <c r="K313" s="3">
+        <v>312</v>
       </c>
       <c r="L313" s="3"/>
       <c r="M313" s="3"/>
@@ -16005,16 +16056,13 @@
         <v>20</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>512</v>
+        <v>564</v>
       </c>
       <c r="D314" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E314" t="s">
-        <v>6</v>
-      </c>
-      <c r="F314">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
@@ -16025,7 +16073,7 @@
         <v>0</v>
       </c>
       <c r="K314" s="3">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L314" s="3"/>
       <c r="M314" s="3"/>
@@ -16040,18 +16088,17 @@
         <v>20</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="D315" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E315" t="s">
         <v>6</v>
       </c>
-      <c r="F315">
-        <v>10</v>
-      </c>
-      <c r="G315" s="3"/>
+      <c r="F315" s="3">
+        <v>25</v>
+      </c>
       <c r="H315" s="3"/>
       <c r="I315">
         <v>1</v>
@@ -16059,8 +16106,8 @@
       <c r="J315">
         <v>0</v>
       </c>
-      <c r="K315" s="3">
-        <v>311</v>
+      <c r="K315">
+        <v>314</v>
       </c>
       <c r="L315" s="3"/>
       <c r="M315" s="3"/>
@@ -16075,10 +16122,10 @@
         <v>20</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D316" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E316" t="s">
         <v>6</v>
@@ -16089,13 +16136,13 @@
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
       <c r="I316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316">
         <v>0</v>
       </c>
-      <c r="K316">
-        <v>312</v>
+      <c r="K316" s="3">
+        <v>315</v>
       </c>
       <c r="L316" s="3"/>
       <c r="M316" s="3"/>
@@ -16110,27 +16157,28 @@
         <v>20</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>495</v>
+        <v>589</v>
       </c>
       <c r="D317" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E317" t="s">
-        <v>6</v>
-      </c>
-      <c r="F317">
-        <v>10</v>
-      </c>
-      <c r="G317" s="3"/>
-      <c r="H317" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G317" s="3">
+        <v>30</v>
+      </c>
+      <c r="H317" s="3">
+        <v>3</v>
+      </c>
       <c r="I317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317">
         <v>0</v>
       </c>
-      <c r="K317" s="3">
-        <v>313</v>
+      <c r="K317">
+        <v>316</v>
       </c>
       <c r="L317" s="3"/>
       <c r="M317" s="3"/>
@@ -16145,27 +16193,28 @@
         <v>20</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D318" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E318" t="s">
-        <v>6</v>
-      </c>
-      <c r="F318">
-        <v>10</v>
-      </c>
-      <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G318" s="3">
+        <v>30</v>
+      </c>
+      <c r="H318" s="3">
+        <v>3</v>
+      </c>
       <c r="I318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318">
         <v>0</v>
       </c>
       <c r="K318" s="3">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L318" s="3"/>
       <c r="M318" s="3"/>
@@ -16180,27 +16229,28 @@
         <v>20</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D319" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E319" t="s">
-        <v>6</v>
-      </c>
-      <c r="F319">
-        <v>25</v>
-      </c>
-      <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G319" s="3">
+        <v>30</v>
+      </c>
+      <c r="H319" s="3">
+        <v>3</v>
+      </c>
       <c r="I319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319">
         <v>0</v>
       </c>
-      <c r="K319">
-        <v>315</v>
+      <c r="K319" s="3">
+        <v>318</v>
       </c>
       <c r="L319" s="3"/>
       <c r="M319" s="3"/>
@@ -16215,10 +16265,10 @@
         <v>20</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D320" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E320" t="s">
         <v>306</v>
@@ -16235,8 +16285,8 @@
       <c r="J320">
         <v>0</v>
       </c>
-      <c r="K320" s="3">
-        <v>316</v>
+      <c r="K320">
+        <v>319</v>
       </c>
       <c r="L320" s="3"/>
       <c r="M320" s="3"/>
@@ -16251,19 +16301,19 @@
         <v>20</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="D321" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E321" t="s">
         <v>306</v>
       </c>
       <c r="G321" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H321" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321">
         <v>0</v>
@@ -16272,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="K321" s="3">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L321" s="3"/>
       <c r="M321" s="3"/>
@@ -16287,28 +16337,27 @@
         <v>20</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D322" s="3">
+        <v>20</v>
+      </c>
+      <c r="E322" t="s">
+        <v>6</v>
+      </c>
+      <c r="F322">
         <v>15</v>
       </c>
-      <c r="E322" t="s">
-        <v>306</v>
-      </c>
-      <c r="G322" s="3">
-        <v>30</v>
-      </c>
-      <c r="H322" s="3">
-        <v>3</v>
-      </c>
+      <c r="G322" s="3"/>
+      <c r="H322" s="3"/>
       <c r="I322">
         <v>0</v>
       </c>
       <c r="J322">
         <v>0</v>
       </c>
-      <c r="K322">
-        <v>318</v>
+      <c r="K322" s="3">
+        <v>321</v>
       </c>
       <c r="L322" s="3"/>
       <c r="M322" s="3"/>
@@ -16323,26 +16372,28 @@
         <v>20</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>409</v>
+        <v>565</v>
       </c>
       <c r="D323" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E323" t="s">
-        <v>6</v>
-      </c>
-      <c r="F323" s="3">
-        <v>25</v>
-      </c>
-      <c r="H323" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G323" s="3">
+        <v>15</v>
+      </c>
+      <c r="H323" s="3">
+        <v>0</v>
+      </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323">
         <v>0</v>
       </c>
-      <c r="K323" s="3">
-        <v>319</v>
+      <c r="K323">
+        <v>322</v>
       </c>
       <c r="L323" s="3"/>
       <c r="M323" s="3"/>
@@ -16357,26 +16408,27 @@
         <v>20</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="D324" s="3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E324" t="s">
         <v>6</v>
       </c>
-      <c r="F324" s="3">
-        <v>25</v>
-      </c>
+      <c r="F324">
+        <v>255</v>
+      </c>
+      <c r="G324" s="3"/>
       <c r="H324" s="3"/>
       <c r="I324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324">
         <v>0</v>
       </c>
       <c r="K324" s="3">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L324" s="3"/>
       <c r="M324" s="3"/>
@@ -16391,10 +16443,10 @@
         <v>20</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D325" s="3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E325" t="s">
         <v>306</v>
@@ -16412,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="K325">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L325" s="3"/>
       <c r="M325" s="3"/>
@@ -16427,19 +16479,19 @@
         <v>20</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="D326" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E326" t="s">
         <v>306</v>
       </c>
       <c r="G326" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H326" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I326">
         <v>0</v>
@@ -16448,7 +16500,7 @@
         <v>0</v>
       </c>
       <c r="K326" s="3">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L326" s="3"/>
       <c r="M326" s="3"/>
@@ -16463,19 +16515,20 @@
         <v>20</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D327" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E327" t="s">
-        <v>6</v>
-      </c>
-      <c r="F327">
-        <v>15</v>
-      </c>
-      <c r="G327" s="3"/>
-      <c r="H327" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G327" s="3">
+        <v>30</v>
+      </c>
+      <c r="H327" s="3">
+        <v>3</v>
+      </c>
       <c r="I327">
         <v>0</v>
       </c>
@@ -16483,7 +16536,7 @@
         <v>0</v>
       </c>
       <c r="K327" s="3">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L327" s="3"/>
       <c r="M327" s="3"/>
@@ -16498,20 +16551,19 @@
         <v>20</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>565</v>
+        <v>347</v>
       </c>
       <c r="D328" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E328" t="s">
-        <v>306</v>
-      </c>
-      <c r="G328" s="3">
-        <v>15</v>
-      </c>
-      <c r="H328" s="3">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F328">
+        <v>10</v>
+      </c>
+      <c r="G328" s="3"/>
+      <c r="H328" s="3"/>
       <c r="I328">
         <v>0</v>
       </c>
@@ -16519,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="K328">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L328" s="3"/>
       <c r="M328" s="3"/>
@@ -16534,16 +16586,13 @@
         <v>20</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>594</v>
+        <v>304</v>
       </c>
       <c r="D329" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E329" t="s">
-        <v>6</v>
-      </c>
-      <c r="F329">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
@@ -16551,10 +16600,10 @@
         <v>0</v>
       </c>
       <c r="J329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K329" s="3">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L329" s="3"/>
       <c r="M329" s="3"/>
@@ -16566,31 +16615,30 @@
         <v>1</v>
       </c>
       <c r="B330" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>595</v>
+        <v>455</v>
       </c>
       <c r="D330" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E330" t="s">
-        <v>306</v>
-      </c>
-      <c r="G330" s="3">
-        <v>30</v>
-      </c>
-      <c r="H330" s="3">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F330">
+        <v>25</v>
+      </c>
+      <c r="G330" s="3"/>
+      <c r="H330" s="3"/>
       <c r="I330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330">
         <v>0</v>
       </c>
       <c r="K330" s="3">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L330" s="3"/>
       <c r="M330" s="3"/>
@@ -16602,31 +16650,30 @@
         <v>1</v>
       </c>
       <c r="B331" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="D331" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E331" t="s">
-        <v>306</v>
-      </c>
-      <c r="G331" s="3">
-        <v>30</v>
-      </c>
-      <c r="H331" s="3">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F331">
+        <v>25</v>
+      </c>
+      <c r="G331" s="3"/>
+      <c r="H331" s="3"/>
       <c r="I331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331">
         <v>0</v>
       </c>
       <c r="K331">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L331" s="3"/>
       <c r="M331" s="3"/>
@@ -16638,31 +16685,30 @@
         <v>1</v>
       </c>
       <c r="B332" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>597</v>
+        <v>347</v>
       </c>
       <c r="D332" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E332" t="s">
-        <v>306</v>
-      </c>
-      <c r="G332" s="3">
-        <v>30</v>
-      </c>
-      <c r="H332" s="3">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F332">
+        <v>10</v>
+      </c>
+      <c r="G332" s="3"/>
+      <c r="H332" s="3"/>
       <c r="I332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332">
         <v>0</v>
       </c>
       <c r="K332" s="3">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L332" s="3"/>
       <c r="M332" s="3"/>
@@ -16674,13 +16720,13 @@
         <v>1</v>
       </c>
       <c r="B333" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>347</v>
+        <v>598</v>
       </c>
       <c r="D333" s="3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E333" t="s">
         <v>6</v>
@@ -16696,8 +16742,8 @@
       <c r="J333">
         <v>0</v>
       </c>
-      <c r="K333" s="3">
-        <v>329</v>
+      <c r="K333">
+        <v>332</v>
       </c>
       <c r="L333" s="3"/>
       <c r="M333" s="3"/>
@@ -16709,13 +16755,13 @@
         <v>1</v>
       </c>
       <c r="B334" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>304</v>
+        <v>599</v>
       </c>
       <c r="D334" s="3">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E334" t="s">
         <v>305</v>
@@ -16726,10 +16772,10 @@
         <v>0</v>
       </c>
       <c r="J334">
-        <v>1</v>
-      </c>
-      <c r="K334">
-        <v>330</v>
+        <v>0</v>
+      </c>
+      <c r="K334" s="3">
+        <v>333</v>
       </c>
       <c r="L334" s="3"/>
       <c r="M334" s="3"/>
@@ -16744,27 +16790,24 @@
         <v>21</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>455</v>
+        <v>600</v>
       </c>
       <c r="D335" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E335" t="s">
-        <v>6</v>
-      </c>
-      <c r="F335">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335">
         <v>0</v>
       </c>
       <c r="K335" s="3">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L335" s="3"/>
       <c r="M335" s="3"/>
@@ -16779,27 +16822,28 @@
         <v>21</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D336" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E336" t="s">
-        <v>6</v>
-      </c>
-      <c r="F336">
-        <v>10</v>
-      </c>
-      <c r="G336" s="3"/>
-      <c r="H336" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G336" s="3">
+        <v>30</v>
+      </c>
+      <c r="H336" s="3">
+        <v>8</v>
+      </c>
       <c r="I336">
         <v>0</v>
       </c>
       <c r="J336">
         <v>0</v>
       </c>
-      <c r="K336" s="3">
-        <v>332</v>
+      <c r="K336">
+        <v>335</v>
       </c>
       <c r="L336" s="3"/>
       <c r="M336" s="3"/>
@@ -16814,10 +16858,10 @@
         <v>21</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D337" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E337" t="s">
         <v>305</v>
@@ -16830,8 +16874,8 @@
       <c r="J337">
         <v>0</v>
       </c>
-      <c r="K337">
-        <v>333</v>
+      <c r="K337" s="3">
+        <v>336</v>
       </c>
       <c r="L337" s="3"/>
       <c r="M337" s="3"/>
@@ -16846,13 +16890,16 @@
         <v>21</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D338" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E338" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F338">
+        <v>25</v>
       </c>
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
@@ -16863,7 +16910,7 @@
         <v>0</v>
       </c>
       <c r="K338" s="3">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L338" s="3"/>
       <c r="M338" s="3"/>
@@ -16878,27 +16925,24 @@
         <v>21</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>573</v>
+        <v>304</v>
       </c>
       <c r="D339" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>6</v>
-      </c>
-      <c r="F339">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
       <c r="I339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J339">
-        <v>0</v>
-      </c>
-      <c r="K339" s="3">
-        <v>335</v>
+        <v>1</v>
+      </c>
+      <c r="K339">
+        <v>338</v>
       </c>
       <c r="L339" s="3"/>
       <c r="M339" s="3"/>
@@ -16910,31 +16954,30 @@
         <v>1</v>
       </c>
       <c r="B340" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>601</v>
+        <v>455</v>
       </c>
       <c r="D340" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E340" t="s">
-        <v>306</v>
-      </c>
-      <c r="G340" s="3">
-        <v>30</v>
-      </c>
-      <c r="H340" s="3">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F340">
+        <v>225</v>
+      </c>
+      <c r="G340" s="3"/>
+      <c r="H340" s="3"/>
       <c r="I340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340">
         <v>0</v>
       </c>
-      <c r="K340">
-        <v>336</v>
+      <c r="K340" s="3">
+        <v>339</v>
       </c>
       <c r="L340" s="3"/>
       <c r="M340" s="3"/>
@@ -16946,27 +16989,30 @@
         <v>1</v>
       </c>
       <c r="B341" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>602</v>
+        <v>347</v>
       </c>
       <c r="D341" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E341" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F341">
+        <v>10</v>
       </c>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
       <c r="I341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J341">
         <v>0</v>
       </c>
-      <c r="K341" s="3">
-        <v>337</v>
+      <c r="K341">
+        <v>340</v>
       </c>
       <c r="L341" s="3"/>
       <c r="M341" s="3"/>
@@ -16978,22 +17024,23 @@
         <v>1</v>
       </c>
       <c r="B342" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>603</v>
+        <v>565</v>
       </c>
       <c r="D342" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E342" t="s">
-        <v>6</v>
-      </c>
-      <c r="F342">
-        <v>25</v>
-      </c>
-      <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G342" s="3">
+        <v>15</v>
+      </c>
+      <c r="H342" s="3">
+        <v>0</v>
+      </c>
       <c r="I342">
         <v>0</v>
       </c>
@@ -17001,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="K342" s="3">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L342" s="3"/>
       <c r="M342" s="3"/>
@@ -17013,30 +17060,27 @@
         <v>1</v>
       </c>
       <c r="B343" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>347</v>
+        <v>604</v>
       </c>
       <c r="D343" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E343" t="s">
-        <v>6</v>
-      </c>
-      <c r="F343">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
       <c r="I343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J343">
         <v>0</v>
       </c>
-      <c r="K343">
-        <v>339</v>
+      <c r="K343" s="3">
+        <v>342</v>
       </c>
       <c r="L343" s="3"/>
       <c r="M343" s="3"/>
@@ -17048,16 +17092,16 @@
         <v>1</v>
       </c>
       <c r="B344" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>304</v>
+        <v>605</v>
       </c>
       <c r="D344" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E344" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
@@ -17065,10 +17109,10 @@
         <v>0</v>
       </c>
       <c r="J344">
-        <v>1</v>
-      </c>
-      <c r="K344" s="3">
-        <v>340</v>
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>343</v>
       </c>
       <c r="L344" s="3"/>
       <c r="M344" s="3"/>
@@ -17083,27 +17127,24 @@
         <v>22</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="D345" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E345" t="s">
-        <v>6</v>
-      </c>
-      <c r="F345">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
       <c r="I345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K345" s="3">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L345" s="3"/>
       <c r="M345" s="3"/>
@@ -17115,19 +17156,19 @@
         <v>1</v>
       </c>
       <c r="B346" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>455</v>
       </c>
       <c r="D346" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E346" t="s">
         <v>6</v>
       </c>
       <c r="F346">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
@@ -17137,8 +17178,8 @@
       <c r="J346">
         <v>0</v>
       </c>
-      <c r="K346">
-        <v>342</v>
+      <c r="K346" s="3">
+        <v>345</v>
       </c>
       <c r="L346" s="3"/>
       <c r="M346" s="3"/>
@@ -17150,31 +17191,30 @@
         <v>1</v>
       </c>
       <c r="B347" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>565</v>
+        <v>333</v>
       </c>
       <c r="D347" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E347" t="s">
-        <v>306</v>
-      </c>
-      <c r="G347" s="3">
-        <v>15</v>
-      </c>
-      <c r="H347" s="3">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F347">
+        <v>25</v>
+      </c>
+      <c r="G347" s="3"/>
+      <c r="H347" s="3"/>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347">
         <v>0</v>
       </c>
-      <c r="K347" s="3">
-        <v>343</v>
+      <c r="K347">
+        <v>346</v>
       </c>
       <c r="L347" s="3"/>
       <c r="M347" s="3"/>
@@ -17186,27 +17226,30 @@
         <v>1</v>
       </c>
       <c r="B348" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>604</v>
+        <v>350</v>
       </c>
       <c r="D348" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E348" t="s">
-        <v>112</v>
+        <v>6</v>
+      </c>
+      <c r="F348">
+        <v>25</v>
       </c>
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
       <c r="I348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J348">
         <v>0</v>
       </c>
       <c r="K348" s="3">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L348" s="3"/>
       <c r="M348" s="3"/>
@@ -17218,27 +17261,30 @@
         <v>1</v>
       </c>
       <c r="B349" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D349" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E349" t="s">
-        <v>348</v>
+        <v>6</v>
+      </c>
+      <c r="F349">
+        <v>25</v>
       </c>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
       <c r="I349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349">
         <v>0</v>
       </c>
       <c r="K349">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L349" s="3"/>
       <c r="M349" s="3"/>
@@ -17250,27 +17296,30 @@
         <v>1</v>
       </c>
       <c r="B350" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>304</v>
+        <v>610</v>
       </c>
       <c r="D350" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E350" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F350">
+        <v>25</v>
       </c>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
       <c r="I350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K350" s="3">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L350" s="3"/>
       <c r="M350" s="3"/>
@@ -17285,13 +17334,16 @@
         <v>23</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>606</v>
+        <v>493</v>
       </c>
       <c r="D351" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E351" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F351">
+        <v>25</v>
       </c>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
@@ -17302,7 +17354,7 @@
         <v>0</v>
       </c>
       <c r="K351" s="3">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L351" s="3"/>
       <c r="M351" s="3"/>
@@ -17317,13 +17369,16 @@
         <v>23</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>564</v>
+        <v>469</v>
       </c>
       <c r="D352" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E352" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F352">
+        <v>25</v>
       </c>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
@@ -17334,7 +17389,7 @@
         <v>0</v>
       </c>
       <c r="K352">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L352" s="3"/>
       <c r="M352" s="3"/>
@@ -17349,13 +17404,16 @@
         <v>23</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="D353" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E353" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F353">
+        <v>25</v>
       </c>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
@@ -17366,7 +17424,7 @@
         <v>0</v>
       </c>
       <c r="K353" s="3">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L353" s="3"/>
       <c r="M353" s="3"/>
@@ -17381,16 +17439,16 @@
         <v>23</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="D354" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E354" t="s">
         <v>6</v>
       </c>
       <c r="F354">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
@@ -17401,7 +17459,7 @@
         <v>0</v>
       </c>
       <c r="K354" s="3">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L354" s="3"/>
       <c r="M354" s="3"/>
@@ -17416,27 +17474,27 @@
         <v>23</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>608</v>
+        <v>497</v>
       </c>
       <c r="D355" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E355" t="s">
         <v>6</v>
       </c>
       <c r="F355">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
       <c r="I355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355">
         <v>0</v>
       </c>
       <c r="K355">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L355" s="3"/>
       <c r="M355" s="3"/>
@@ -17451,10 +17509,10 @@
         <v>23</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>469</v>
+        <v>586</v>
       </c>
       <c r="D356" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E356" t="s">
         <v>6</v>
@@ -17471,7 +17529,7 @@
         <v>0</v>
       </c>
       <c r="K356" s="3">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L356" s="3"/>
       <c r="M356" s="3"/>
@@ -17486,16 +17544,16 @@
         <v>23</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="D357" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E357" t="s">
         <v>6</v>
       </c>
       <c r="F357">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
@@ -17505,8 +17563,8 @@
       <c r="J357">
         <v>0</v>
       </c>
-      <c r="K357" s="3">
-        <v>353</v>
+      <c r="K357">
+        <v>356</v>
       </c>
       <c r="L357" s="3"/>
       <c r="M357" s="3"/>
@@ -17521,16 +17579,16 @@
         <v>23</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>609</v>
+        <v>514</v>
       </c>
       <c r="D358" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E358" t="s">
         <v>6</v>
       </c>
       <c r="F358">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
@@ -17540,8 +17598,8 @@
       <c r="J358">
         <v>0</v>
       </c>
-      <c r="K358">
-        <v>354</v>
+      <c r="K358" s="3">
+        <v>357</v>
       </c>
       <c r="L358" s="3"/>
       <c r="M358" s="3"/>
@@ -17556,10 +17614,10 @@
         <v>23</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>350</v>
+        <v>573</v>
       </c>
       <c r="D359" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E359" t="s">
         <v>6</v>
@@ -17576,7 +17634,7 @@
         <v>0</v>
       </c>
       <c r="K359" s="3">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L359" s="3"/>
       <c r="M359" s="3"/>
@@ -17591,27 +17649,28 @@
         <v>23</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>333</v>
+        <v>565</v>
       </c>
       <c r="D360" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E360" t="s">
-        <v>6</v>
-      </c>
-      <c r="F360">
-        <v>25</v>
-      </c>
-      <c r="G360" s="3"/>
-      <c r="H360" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G360" s="3">
+        <v>15</v>
+      </c>
+      <c r="H360" s="3">
+        <v>0</v>
+      </c>
       <c r="I360">
         <v>1</v>
       </c>
       <c r="J360">
         <v>0</v>
       </c>
-      <c r="K360" s="3">
-        <v>356</v>
+      <c r="K360">
+        <v>359</v>
       </c>
       <c r="L360" s="3"/>
       <c r="M360" s="3"/>
@@ -17626,16 +17685,13 @@
         <v>23</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D361" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E361" t="s">
-        <v>6</v>
-      </c>
-      <c r="F361">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
@@ -17645,8 +17701,8 @@
       <c r="J361">
         <v>0</v>
       </c>
-      <c r="K361">
-        <v>357</v>
+      <c r="K361" s="3">
+        <v>360</v>
       </c>
       <c r="L361" s="3"/>
       <c r="M361" s="3"/>
@@ -17661,20 +17717,16 @@
         <v>23</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D362" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E362" t="s">
-        <v>306</v>
-      </c>
-      <c r="G362" s="3">
-        <v>15</v>
-      </c>
-      <c r="H362" s="3">
-        <v>0</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G362" s="3"/>
+      <c r="H362" s="3"/>
       <c r="I362">
         <v>1</v>
       </c>
@@ -17682,7 +17734,7 @@
         <v>0</v>
       </c>
       <c r="K362" s="3">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L362" s="3"/>
       <c r="M362" s="3"/>
@@ -17697,28 +17749,24 @@
         <v>23</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>562</v>
+        <v>607</v>
       </c>
       <c r="D363" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E363" t="s">
-        <v>306</v>
-      </c>
-      <c r="G363" s="3">
-        <v>20</v>
-      </c>
-      <c r="H363" s="3">
-        <v>0</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G363" s="3"/>
+      <c r="H363" s="3"/>
       <c r="I363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J363">
         <v>0</v>
       </c>
-      <c r="K363" s="3">
-        <v>359</v>
+      <c r="K363">
+        <v>362</v>
       </c>
       <c r="L363" s="3"/>
       <c r="M363" s="3"/>
@@ -17733,16 +17781,16 @@
         <v>23</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>573</v>
+        <v>347</v>
       </c>
       <c r="D364" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E364" t="s">
         <v>6</v>
       </c>
       <c r="F364">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
@@ -17752,8 +17800,8 @@
       <c r="J364">
         <v>0</v>
       </c>
-      <c r="K364">
-        <v>360</v>
+      <c r="K364" s="3">
+        <v>363</v>
       </c>
       <c r="L364" s="3"/>
       <c r="M364" s="3"/>
@@ -17768,19 +17816,19 @@
         <v>23</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="D365" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E365" t="s">
         <v>306</v>
       </c>
       <c r="G365" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H365" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I365">
         <v>0</v>
@@ -17788,8 +17836,8 @@
       <c r="J365">
         <v>0</v>
       </c>
-      <c r="K365" s="3">
-        <v>361</v>
+      <c r="K365">
+        <v>364</v>
       </c>
       <c r="L365" s="3"/>
       <c r="M365" s="3"/>
@@ -17804,20 +17852,19 @@
         <v>23</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D366" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E366" t="s">
-        <v>306</v>
-      </c>
-      <c r="G366" s="3">
-        <v>30</v>
-      </c>
-      <c r="H366" s="3">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F366">
+        <v>25</v>
+      </c>
+      <c r="G366" s="3"/>
+      <c r="H366" s="3"/>
       <c r="I366">
         <v>0</v>
       </c>
@@ -17825,7 +17872,7 @@
         <v>0</v>
       </c>
       <c r="K366" s="3">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L366" s="3"/>
       <c r="M366" s="3"/>
@@ -17840,10 +17887,10 @@
         <v>23</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D367" s="3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E367" t="s">
         <v>306</v>
@@ -17852,7 +17899,7 @@
         <v>30</v>
       </c>
       <c r="H367" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I367">
         <v>0</v>
@@ -17860,8 +17907,8 @@
       <c r="J367">
         <v>0</v>
       </c>
-      <c r="K367">
-        <v>363</v>
+      <c r="K367" s="3">
+        <v>366</v>
       </c>
       <c r="L367" s="3"/>
       <c r="M367" s="3"/>
@@ -17876,10 +17923,10 @@
         <v>23</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D368" s="3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E368" t="s">
         <v>306</v>
@@ -17896,8 +17943,8 @@
       <c r="J368">
         <v>0</v>
       </c>
-      <c r="K368" s="3">
-        <v>364</v>
+      <c r="K368">
+        <v>367</v>
       </c>
       <c r="L368" s="3"/>
       <c r="M368" s="3"/>
@@ -17912,10 +17959,10 @@
         <v>23</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D369" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E369" t="s">
         <v>306</v>
@@ -17933,7 +17980,7 @@
         <v>0</v>
       </c>
       <c r="K369" s="3">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L369" s="3"/>
       <c r="M369" s="3"/>
@@ -17948,24 +17995,28 @@
         <v>23</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D370" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E370" t="s">
+        <v>306</v>
+      </c>
+      <c r="G370" s="3">
+        <v>30</v>
+      </c>
+      <c r="H370" s="3">
         <v>3</v>
       </c>
-      <c r="G370" s="3"/>
-      <c r="H370" s="3"/>
       <c r="I370">
         <v>0</v>
       </c>
       <c r="J370">
         <v>0</v>
       </c>
-      <c r="K370">
-        <v>366</v>
+      <c r="K370" s="3">
+        <v>369</v>
       </c>
       <c r="L370" s="3"/>
       <c r="M370" s="3"/>
@@ -17980,10 +18031,10 @@
         <v>23</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D371" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E371" t="s">
         <v>306</v>
@@ -18000,8 +18051,8 @@
       <c r="J371">
         <v>0</v>
       </c>
-      <c r="K371" s="3">
-        <v>367</v>
+      <c r="K371">
+        <v>370</v>
       </c>
       <c r="L371" s="3"/>
       <c r="M371" s="3"/>
@@ -18016,20 +18067,16 @@
         <v>23</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D372" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E372" t="s">
-        <v>306</v>
-      </c>
-      <c r="G372" s="3">
-        <v>30</v>
-      </c>
-      <c r="H372" s="3">
         <v>3</v>
       </c>
+      <c r="G372" s="3"/>
+      <c r="H372" s="3"/>
       <c r="I372">
         <v>0</v>
       </c>
@@ -18037,7 +18084,7 @@
         <v>0</v>
       </c>
       <c r="K372" s="3">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L372" s="3"/>
       <c r="M372" s="3"/>
@@ -18052,10 +18099,10 @@
         <v>23</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D373" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E373" t="s">
         <v>306</v>
@@ -18073,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="K373">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L373" s="3"/>
       <c r="M373" s="3"/>
@@ -18088,10 +18135,10 @@
         <v>23</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D374" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E374" t="s">
         <v>306</v>
@@ -18109,7 +18156,7 @@
         <v>0</v>
       </c>
       <c r="K374" s="3">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L374" s="3"/>
       <c r="M374" s="3"/>
@@ -18124,10 +18171,10 @@
         <v>23</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D375" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E375" t="s">
         <v>306</v>
@@ -18145,7 +18192,7 @@
         <v>0</v>
       </c>
       <c r="K375" s="3">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L375" s="3"/>
       <c r="M375" s="3"/>
@@ -18160,10 +18207,10 @@
         <v>23</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D376" s="3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E376" t="s">
         <v>306</v>
@@ -18181,7 +18228,7 @@
         <v>0</v>
       </c>
       <c r="K376">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L376" s="3"/>
       <c r="M376" s="3"/>
@@ -18196,10 +18243,10 @@
         <v>23</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D377" s="3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E377" t="s">
         <v>306</v>
@@ -18217,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="K377" s="3">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L377" s="3"/>
       <c r="M377" s="3"/>
@@ -18232,10 +18279,10 @@
         <v>23</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D378" s="3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E378" t="s">
         <v>306</v>
@@ -18253,7 +18300,7 @@
         <v>0</v>
       </c>
       <c r="K378" s="3">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L378" s="3"/>
       <c r="M378" s="3"/>
@@ -18268,10 +18315,10 @@
         <v>23</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D379" s="3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E379" t="s">
         <v>306</v>
@@ -18280,7 +18327,7 @@
         <v>30</v>
       </c>
       <c r="H379" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I379">
         <v>0</v>
@@ -18289,7 +18336,7 @@
         <v>0</v>
       </c>
       <c r="K379">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L379" s="3"/>
       <c r="M379" s="3"/>
@@ -18304,10 +18351,10 @@
         <v>23</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D380" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E380" t="s">
         <v>306</v>
@@ -18316,7 +18363,7 @@
         <v>30</v>
       </c>
       <c r="H380" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I380">
         <v>0</v>
@@ -18325,7 +18372,7 @@
         <v>0</v>
       </c>
       <c r="K380" s="3">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L380" s="3"/>
       <c r="M380" s="3"/>
@@ -18340,19 +18387,19 @@
         <v>23</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>563</v>
+        <v>625</v>
       </c>
       <c r="D381" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E381" t="s">
         <v>306</v>
       </c>
       <c r="G381" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H381" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I381">
         <v>0</v>
@@ -18360,8 +18407,8 @@
       <c r="J381">
         <v>0</v>
       </c>
-      <c r="K381" s="3">
-        <v>377</v>
+      <c r="K381">
+        <v>380</v>
       </c>
       <c r="L381" s="3"/>
       <c r="M381" s="3"/>
@@ -18376,27 +18423,28 @@
         <v>23</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>512</v>
+        <v>626</v>
       </c>
       <c r="D382" s="3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E382" t="s">
-        <v>6</v>
-      </c>
-      <c r="F382">
-        <v>10</v>
-      </c>
-      <c r="G382" s="3"/>
-      <c r="H382" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G382" s="3">
+        <v>30</v>
+      </c>
+      <c r="H382" s="3">
+        <v>8</v>
+      </c>
       <c r="I382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J382">
         <v>0</v>
       </c>
-      <c r="K382">
-        <v>378</v>
+      <c r="K382" s="3">
+        <v>381</v>
       </c>
       <c r="L382" s="3"/>
       <c r="M382" s="3"/>
@@ -18411,27 +18459,28 @@
         <v>23</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="D383" s="3">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E383" t="s">
-        <v>6</v>
-      </c>
-      <c r="F383">
-        <v>25</v>
-      </c>
-      <c r="G383" s="3"/>
-      <c r="H383" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="G383" s="3">
+        <v>15</v>
+      </c>
+      <c r="H383" s="3">
+        <v>0</v>
+      </c>
       <c r="I383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J383">
         <v>0</v>
       </c>
       <c r="K383" s="3">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L383" s="3"/>
       <c r="M383" s="3"/>
@@ -18446,27 +18495,27 @@
         <v>23</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>514</v>
+        <v>627</v>
       </c>
       <c r="D384" s="3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E384" t="s">
         <v>6</v>
       </c>
       <c r="F384">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
       <c r="I384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J384">
         <v>0</v>
       </c>
-      <c r="K384" s="3">
-        <v>380</v>
+      <c r="K384">
+        <v>383</v>
       </c>
       <c r="L384" s="3"/>
       <c r="M384" s="3"/>
@@ -18481,27 +18530,27 @@
         <v>23</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>495</v>
+        <v>593</v>
       </c>
       <c r="D385" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E385" t="s">
         <v>6</v>
       </c>
       <c r="F385">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
       <c r="I385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J385">
         <v>0</v>
       </c>
-      <c r="K385">
-        <v>381</v>
+      <c r="K385" s="3">
+        <v>384</v>
       </c>
       <c r="L385" s="3"/>
       <c r="M385" s="3"/>
@@ -18516,27 +18565,27 @@
         <v>23</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="D386" s="3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E386" t="s">
         <v>6</v>
       </c>
       <c r="F386">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
       <c r="I386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J386">
         <v>0</v>
       </c>
       <c r="K386" s="3">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L386" s="3"/>
       <c r="M386" s="3"/>
@@ -18551,27 +18600,27 @@
         <v>23</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>497</v>
+        <v>629</v>
       </c>
       <c r="D387" s="3">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E387" t="s">
         <v>6</v>
       </c>
       <c r="F387">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
       <c r="I387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387">
         <v>0</v>
       </c>
-      <c r="K387" s="3">
-        <v>383</v>
+      <c r="K387">
+        <v>386</v>
       </c>
       <c r="L387" s="3"/>
       <c r="M387" s="3"/>
@@ -18586,10 +18635,10 @@
         <v>23</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>627</v>
+        <v>452</v>
       </c>
       <c r="D388" s="3">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E388" t="s">
         <v>6</v>
@@ -18605,8 +18654,8 @@
       <c r="J388">
         <v>0</v>
       </c>
-      <c r="K388">
-        <v>384</v>
+      <c r="K388" s="3">
+        <v>387</v>
       </c>
       <c r="L388" s="3"/>
       <c r="M388" s="3"/>
@@ -18621,16 +18670,13 @@
         <v>23</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>593</v>
+        <v>304</v>
       </c>
       <c r="D389" s="3">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E389" t="s">
-        <v>6</v>
-      </c>
-      <c r="F389">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
@@ -18638,10 +18684,10 @@
         <v>0</v>
       </c>
       <c r="J389">
-        <v>0</v>
-      </c>
-      <c r="K389" s="3">
-        <v>385</v>
+        <v>1</v>
+      </c>
+      <c r="K389">
+        <v>388</v>
       </c>
       <c r="L389" s="3"/>
       <c r="M389" s="3"/>
@@ -18653,34 +18699,40 @@
         <v>1</v>
       </c>
       <c r="B390" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>628</v>
+        <v>543</v>
       </c>
       <c r="D390" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E390" t="s">
         <v>6</v>
       </c>
       <c r="F390">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
       <c r="I390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390">
         <v>0</v>
       </c>
       <c r="K390" s="3">
-        <v>386</v>
-      </c>
-      <c r="L390" s="3"/>
-      <c r="M390" s="3"/>
-      <c r="N390" s="3"/>
+        <v>389</v>
+      </c>
+      <c r="L390" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M390" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N390" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O390" s="3"/>
     </row>
     <row r="391" spans="1:15">
@@ -18688,34 +18740,40 @@
         <v>1</v>
       </c>
       <c r="B391" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>629</v>
+        <v>455</v>
       </c>
       <c r="D391" s="3">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E391" t="s">
         <v>6</v>
       </c>
       <c r="F391">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
       <c r="I391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391">
         <v>0</v>
       </c>
-      <c r="K391">
-        <v>387</v>
-      </c>
-      <c r="L391" s="3"/>
-      <c r="M391" s="3"/>
-      <c r="N391" s="3"/>
+      <c r="K391" s="3">
+        <v>390</v>
+      </c>
+      <c r="L391" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M391" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N391" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O391" s="3"/>
     </row>
     <row r="392" spans="1:15">
@@ -18723,34 +18781,40 @@
         <v>1</v>
       </c>
       <c r="B392" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="D392" s="3">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E392" t="s">
         <v>6</v>
       </c>
       <c r="F392">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
       <c r="I392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J392">
         <v>0</v>
       </c>
-      <c r="K392" s="3">
-        <v>388</v>
-      </c>
-      <c r="L392" s="3"/>
-      <c r="M392" s="3"/>
-      <c r="N392" s="3"/>
+      <c r="K392">
+        <v>391</v>
+      </c>
+      <c r="L392" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M392" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N392" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O392" s="3"/>
     </row>
     <row r="393" spans="1:15">
@@ -18758,13 +18822,13 @@
         <v>1</v>
       </c>
       <c r="B393" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>347</v>
+        <v>634</v>
       </c>
       <c r="D393" s="3">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E393" t="s">
         <v>6</v>
@@ -18781,11 +18845,17 @@
         <v>0</v>
       </c>
       <c r="K393" s="3">
-        <v>389</v>
-      </c>
-      <c r="L393" s="3"/>
-      <c r="M393" s="3"/>
-      <c r="N393" s="3"/>
+        <v>392</v>
+      </c>
+      <c r="L393" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M393" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N393" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O393" s="3"/>
     </row>
     <row r="394" spans="1:15">
@@ -18793,16 +18863,19 @@
         <v>1</v>
       </c>
       <c r="B394" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>304</v>
+        <v>630</v>
       </c>
       <c r="D394" s="3">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E394" t="s">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="F394">
+        <v>50</v>
       </c>
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
@@ -18810,14 +18883,20 @@
         <v>0</v>
       </c>
       <c r="J394">
-        <v>1</v>
-      </c>
-      <c r="K394">
-        <v>390</v>
-      </c>
-      <c r="L394" s="3"/>
-      <c r="M394" s="3"/>
-      <c r="N394" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K394" s="3">
+        <v>393</v>
+      </c>
+      <c r="L394" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M394" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N394" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O394" s="3"/>
     </row>
     <row r="395" spans="1:15">
@@ -18828,10 +18907,10 @@
         <v>24</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>543</v>
+        <v>631</v>
       </c>
       <c r="D395" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E395" t="s">
         <v>6</v>
@@ -18842,13 +18921,13 @@
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
       <c r="I395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395">
         <v>0</v>
       </c>
-      <c r="K395" s="3">
-        <v>391</v>
+      <c r="K395">
+        <v>394</v>
       </c>
       <c r="L395" s="3" t="s">
         <v>136</v>
@@ -18869,10 +18948,10 @@
         <v>24</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>455</v>
+        <v>632</v>
       </c>
       <c r="D396" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E396" t="s">
         <v>6</v>
@@ -18883,13 +18962,13 @@
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
       <c r="I396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J396">
         <v>0</v>
       </c>
       <c r="K396" s="3">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L396" s="3" t="s">
         <v>136</v>
@@ -18910,10 +18989,10 @@
         <v>24</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>493</v>
+        <v>633</v>
       </c>
       <c r="D397" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E397" t="s">
         <v>6</v>
@@ -18924,13 +19003,13 @@
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
       <c r="I397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J397">
         <v>0</v>
       </c>
       <c r="K397">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L397" s="3" t="s">
         <v>136</v>
@@ -18939,254 +19018,79 @@
         <v>137</v>
       </c>
       <c r="N397" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15">
-      <c r="A398" s="3">
-        <v>1</v>
-      </c>
-      <c r="B398" s="16">
-        <v>24</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="D398" s="3">
-        <v>4</v>
-      </c>
-      <c r="E398" t="s">
-        <v>6</v>
-      </c>
-      <c r="F398">
-        <v>50</v>
-      </c>
-      <c r="G398" s="3"/>
-      <c r="H398" s="3"/>
-      <c r="I398">
-        <v>0</v>
-      </c>
-      <c r="J398">
-        <v>0</v>
-      </c>
-      <c r="K398" s="3">
-        <v>394</v>
-      </c>
-      <c r="L398" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M398" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N398" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O398" s="3"/>
-    </row>
-    <row r="399" spans="1:15">
-      <c r="A399" s="3">
-        <v>1</v>
-      </c>
-      <c r="B399" s="16">
-        <v>24</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="D399" s="3">
-        <v>5</v>
-      </c>
-      <c r="E399" t="s">
-        <v>6</v>
-      </c>
-      <c r="F399">
-        <v>50</v>
-      </c>
-      <c r="G399" s="3"/>
-      <c r="H399" s="3"/>
-      <c r="I399">
-        <v>0</v>
-      </c>
-      <c r="J399">
-        <v>0</v>
-      </c>
-      <c r="K399" s="3">
-        <v>395</v>
-      </c>
-      <c r="L399" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M399" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N399" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O399" s="3"/>
-    </row>
-    <row r="400" spans="1:15">
-      <c r="A400" s="3">
-        <v>1</v>
-      </c>
-      <c r="B400" s="16">
-        <v>24</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="D400" s="3">
-        <v>6</v>
-      </c>
-      <c r="E400" t="s">
-        <v>6</v>
-      </c>
-      <c r="F400">
-        <v>50</v>
-      </c>
-      <c r="G400" s="3"/>
-      <c r="H400" s="3"/>
-      <c r="I400">
-        <v>0</v>
-      </c>
-      <c r="J400">
-        <v>0</v>
-      </c>
-      <c r="K400">
-        <v>396</v>
-      </c>
-      <c r="L400" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M400" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N400" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O400" s="3"/>
-    </row>
-    <row r="401" spans="1:15">
-      <c r="A401" s="3">
-        <v>1</v>
-      </c>
-      <c r="B401" s="16">
-        <v>24</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="D401" s="3">
-        <v>7</v>
-      </c>
-      <c r="E401" t="s">
-        <v>6</v>
-      </c>
-      <c r="F401">
-        <v>50</v>
-      </c>
-      <c r="G401" s="3"/>
-      <c r="H401" s="3"/>
-      <c r="I401">
-        <v>0</v>
-      </c>
-      <c r="J401">
-        <v>0</v>
-      </c>
-      <c r="K401" s="3">
-        <v>397</v>
-      </c>
-      <c r="L401" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M401" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N401" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O401" s="3"/>
-    </row>
-    <row r="402" spans="1:15">
-      <c r="A402" s="3">
-        <v>1</v>
-      </c>
-      <c r="B402" s="16">
-        <v>24</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="D402" s="3">
-        <v>8</v>
-      </c>
-      <c r="E402" t="s">
-        <v>6</v>
-      </c>
-      <c r="F402">
-        <v>10</v>
-      </c>
-      <c r="G402" s="3"/>
-      <c r="H402" s="3"/>
-      <c r="I402">
-        <v>1</v>
-      </c>
-      <c r="J402">
-        <v>0</v>
-      </c>
-      <c r="K402" s="3">
-        <v>398</v>
-      </c>
-      <c r="L402" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M402" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N402" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O402" s="3"/>
-    </row>
-    <row r="403" spans="1:15">
-      <c r="A403" s="3">
-        <v>1</v>
-      </c>
-      <c r="B403" s="16">
-        <v>24</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D403" s="3">
-        <v>9</v>
-      </c>
-      <c r="E403" t="s">
-        <v>305</v>
-      </c>
-      <c r="G403" s="3"/>
-      <c r="H403" s="3"/>
-      <c r="I403">
-        <v>0</v>
-      </c>
-      <c r="J403">
-        <v>1</v>
-      </c>
-      <c r="K403">
-        <v>399</v>
-      </c>
-      <c r="L403" s="3"/>
-      <c r="M403" s="3"/>
-      <c r="N403" s="3"/>
-      <c r="O403" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A19:B80 D80 C19:E79 A2:E18">
-    <cfRule type="expression" dxfId="47" priority="126">
-      <formula>ISBLANK(A2)</formula>
+  <conditionalFormatting sqref="A19:B80 D80 C19:E79 A3:E18">
+    <cfRule type="expression" dxfId="25" priority="137">
+      <formula>ISBLANK(A3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I344">
+  <conditionalFormatting sqref="I339">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="13">
+      <formula>ISBLANK(I339)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J339">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="15">
+      <formula>ISBLANK(J339)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="expression" dxfId="22" priority="6">
+      <formula>ISBLANK(B2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="8">
+      <formula>ISBLANK(I2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="10">
+      <formula>ISBLANK(J2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I232:I233">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -19194,11 +19098,11 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
-      <formula>ISBLANK(I344)</formula>
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>ISBLANK(I232)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J344">
+  <conditionalFormatting sqref="J232:J233">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -19206,36 +19110,45 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="4">
-      <formula>ISBLANK(J344)</formula>
+    <cfRule type="expression" dxfId="18" priority="4">
+      <formula>ISBLANK(J232)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I403">
-    <cfRule type="iconSet" priority="623">
+  <conditionalFormatting sqref="O232:O233">
+    <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0.5"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="624">
-      <formula>ISBLANK(I2)</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J403">
-    <cfRule type="iconSet" priority="625">
+  <conditionalFormatting sqref="I234:I397 I3:I231">
+    <cfRule type="iconSet" priority="1091">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0.5"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="626">
-      <formula>ISBLANK(J2)</formula>
+    <cfRule type="expression" dxfId="1" priority="1092">
+      <formula>ISBLANK(I3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O403">
-    <cfRule type="iconSet" priority="627">
+  <conditionalFormatting sqref="J234:J397 J3:J231">
+    <cfRule type="iconSet" priority="1095">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1096">
+      <formula>ISBLANK(J3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O234:O397 O3:O231">
+    <cfRule type="iconSet" priority="1099">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -19244,19 +19157,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the smallint datatype." sqref="E191 F344 H344 D2:D334 H2:H334 F2:F334" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the smallint datatype." sqref="F339:F340 H339:H340 D2:D329 F2:F329 H2:H329" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>-32768</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the tinyint datatype." sqref="F323:F324 G325:G334 G344 G2:G322" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the tinyint datatype." sqref="G339:G340 F315 F305 G2:G329" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the int datatype." sqref="A2:A403 K2:K403" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the int datatype." sqref="A2:A397 K2:K397" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>-2147483648</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the nvarchar(128) datatype." sqref="L2:N403" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the nvarchar(128) datatype." sqref="L2:N397" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>128</formula1>
     </dataValidation>
   </dataValidations>
@@ -19540,27 +19453,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7">
-    <cfRule type="expression" dxfId="30" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>ISBLANK(C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="expression" dxfId="29" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>ISBLANK(D2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>ISBLANK(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>ISBLANK(F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19705,7 +19618,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="expression" dxfId="24" priority="116">
+    <cfRule type="expression" dxfId="12" priority="116">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19825,7 +19738,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2 C2:D2">
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19837,7 +19750,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="580">
+    <cfRule type="expression" dxfId="10" priority="580">
       <formula>ISBLANK(E2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19849,7 +19762,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="582">
+    <cfRule type="expression" dxfId="9" priority="582">
       <formula>ISBLANK(F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19861,7 +19774,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="584">
+    <cfRule type="expression" dxfId="8" priority="584">
       <formula>ISBLANK(G2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19873,7 +19786,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="586">
+    <cfRule type="expression" dxfId="7" priority="586">
       <formula>ISBLANK(H2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19885,7 +19798,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="588">
+    <cfRule type="expression" dxfId="6" priority="588">
       <formula>ISBLANK(I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20246,7 +20159,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E8">
-    <cfRule type="expression" dxfId="8" priority="27">
+    <cfRule type="expression" dxfId="5" priority="27">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20258,7 +20171,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="611">
+    <cfRule type="expression" dxfId="4" priority="611">
       <formula>ISBLANK(K2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20270,7 +20183,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="613">
+    <cfRule type="expression" dxfId="3" priority="613">
       <formula>ISBLANK(I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20282,7 +20195,7 @@
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="615">
+    <cfRule type="expression" dxfId="2" priority="615">
       <formula>ISBLANK(J2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Metadatenpflege/Metadaten_Pflege.xlsx
+++ b/Metadatenpflege/Metadaten_Pflege.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaspe\Documents\ILF\Metadatenpflege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88ED490-1F85-46EF-93E7-99B2561CC5CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E53364-4D5E-49A0-A3F8-F0D91E1AA2A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="754" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="754" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Connection" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="660">
   <si>
     <t>ID</t>
   </si>
@@ -2460,6 +2460,15 @@
   </si>
   <si>
     <t>preprod</t>
+  </si>
+  <si>
+    <t>EXEMPLOYEE</t>
+  </si>
+  <si>
+    <t>dbo</t>
+  </si>
+  <si>
+    <t>EXJOBHEADER</t>
   </si>
 </sst>
 </file>
@@ -4392,10 +4401,10 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4934,10 +4943,10 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4948,7 +4957,7 @@
     <col min="4" max="4" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -4997,8 +5006,11 @@
       <c r="C2" s="4">
         <v>6</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>658</v>
+      </c>
       <c r="E2" s="17" t="s">
-        <v>297</v>
+        <v>657</v>
       </c>
       <c r="F2" s="3">
         <v>2</v>
@@ -5021,7 +5033,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>298</v>
+        <v>659</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
@@ -5506,10 +5518,10 @@
   </sheetPr>
   <dimension ref="A1:O328"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
